--- a/code/whole_experiment/75_steady_ex.xlsx
+++ b/code/whole_experiment/75_steady_ex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,28 +492,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.658920303318367</v>
+        <v>0.7007119904214419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1089047992793571</v>
+        <v>0.1363939642793362</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6540224168071955</v>
+        <v>0.6497641512917374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6529356449330919</v>
+        <v>0.6570382728172861</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -526,28 +526,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6647153258492599</v>
+        <v>0.7039089968886667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08860595351714515</v>
+        <v>0.4590930392969536</v>
       </c>
       <c r="D3" t="n">
-        <v>0.658920303318367</v>
+        <v>0.6671121277252956</v>
       </c>
       <c r="E3" t="n">
-        <v>0.66869870367714</v>
+        <v>0.6701696879180876</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,28 +560,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4688228707352791</v>
+        <v>0.5355911170515506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02095087759634905</v>
+        <v>0.3026898434084645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4176119530719026</v>
+        <v>0.5876108470314618</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4192341226323725</v>
+        <v>0.5881886509453981</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4688228707352791</v>
+        <v>0.4981805099311146</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -594,28 +594,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4010618905784509</v>
+        <v>0.6752641757338014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372995424713108</v>
+        <v>0.09475891819711865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3920266010065004</v>
+        <v>0.6703522488795297</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4007364212201207</v>
+        <v>0.6714613246047658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5239176410563324</v>
+        <v>0.7263857535968482</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4350788416625723</v>
+        <v>0.563142821481361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2077572078358244</v>
+        <v>0.2724003895081541</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3861741442866443</v>
+        <v>0.5193831579793311</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3872764512744318</v>
+        <v>0.5220883664911026</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4961257245796187</v>
+        <v>0.7102252288224064</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -662,28 +662,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4170138046357721</v>
+        <v>0.4990473675290062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03670752939262618</v>
+        <v>0.4859297173531535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3873120945765857</v>
+        <v>0.5152690894540211</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3873120945765857</v>
+        <v>0.517589915591622</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4170138046357721</v>
+        <v>0.4990473675290062</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -696,28 +696,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.002390999945971525</v>
+        <v>0.07662042564802532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02538370383049241</v>
+        <v>0.07890989212656339</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.004770767615395795</v>
+        <v>0.0696064561519741</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.004770767615395795</v>
+        <v>0.123767377966899</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002390999945971525</v>
+        <v>0.07662042564802532</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3862459531573181</v>
+        <v>0.6317112332492517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06433234044598463</v>
+        <v>0.09263619054770003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3854124282455342</v>
+        <v>0.5750451227073483</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3862459531573181</v>
+        <v>0.5876532403934263</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5835428124302005</v>
+        <v>0.7291842501713081</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.9965122672881046</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.8882045056149849</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9325236776913204</v>
+        <v>0.9491579090691534</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -764,28 +764,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8056851602060898</v>
+        <v>0.7689554689987654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2747857091268334</v>
+        <v>0.208095098978712</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8206837556868096</v>
+        <v>0.6920584784390662</v>
       </c>
       <c r="E10" t="n">
-        <v>0.884225457883099</v>
+        <v>0.7099222737406599</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9473894301514987</v>
+        <v>0.9394648866657394</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -798,28 +798,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8191107091349092</v>
+        <v>0.7694676713261661</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1150516023823054</v>
+        <v>0.1424745989415364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7971046282079404</v>
+        <v>0.7518273633431226</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7971046282079404</v>
+        <v>0.7619293438704349</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -832,28 +832,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4941530752458961</v>
+        <v>0.5346910902734974</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05533345055048256</v>
+        <v>0.1413741980036719</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4339517273085446</v>
+        <v>0.4728157022105717</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3874652611335662</v>
+        <v>0.4614171877457629</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4941530752458961</v>
+        <v>0.533419409335177</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -866,28 +866,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5185462450852277</v>
+        <v>0.5953895186485278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1447189853480068</v>
+        <v>0.05510939252051814</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4735020289476831</v>
+        <v>0.5478352541375872</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4735020289476831</v>
+        <v>0.56230217079411</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6139225351889865</v>
+        <v>0.6353102715521698</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6088405846226476</v>
+        <v>0.5612060698251979</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2128360912072157</v>
+        <v>0.239440765930945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5657857074174782</v>
+        <v>0.5277017924923839</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5628986671591323</v>
+        <v>0.5268349927658729</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6016766644684067</v>
+        <v>0.6023446089206304</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -934,28 +934,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4145696168043458</v>
+        <v>0.5286796241820605</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3382674226449745</v>
+        <v>0.2050863749330216</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4075903371653631</v>
+        <v>0.5193349103622936</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4075942807909076</v>
+        <v>0.5288752243337749</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4145696168043458</v>
+        <v>0.5286796241820605</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01710492492339876</v>
+        <v>0.07706220569029373</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009550948841525358</v>
+        <v>0.07390499144454619</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.004379667434351836</v>
+        <v>0.06939462580312684</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.008975294142185977</v>
+        <v>0.07155693822310533</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01710492492339876</v>
+        <v>0.07706220569029373</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1002,28 +1002,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6188047193111647</v>
+        <v>0.6355616820641786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06636422919486111</v>
+        <v>0.105490281959823</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5111821486034611</v>
+        <v>0.5744558685772766</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5387900577560395</v>
+        <v>0.5828490506827225</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5878910879309323</v>
+        <v>0.6524184332270089</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9906013715354037</v>
+        <v>0.9961016652406158</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8001913225945813</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8907723899615266</v>
+        <v>0.8582722593135881</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1036,28 +1036,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9221512338912539</v>
+        <v>0.7232583385651681</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.007570449818697375</v>
+        <v>0.2216258858808723</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9473864240221783</v>
+        <v>0.6403304932283591</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9733295893886703</v>
+        <v>0.6610473872526039</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9473864240221783</v>
+        <v>0.8886087030079611</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -1070,28 +1070,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6498190063436642</v>
+        <v>0.7379225002637689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08121766350559217</v>
+        <v>0.391238086317631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6016432587712904</v>
+        <v>0.7143166811157963</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7165440974591772</v>
+        <v>0.7177739677067563</v>
       </c>
       <c r="F19" t="n">
-        <v>0.894775854173677</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1104,28 +1104,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1991330189069487</v>
+        <v>0.341555708920358</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01419302373384945</v>
+        <v>0.132197606489127</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1846120180408118</v>
+        <v>0.3349293122238885</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2206928350891799</v>
+        <v>0.3159350822617376</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1717707438057768</v>
+        <v>0.3688819252044676</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -1138,28 +1138,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2167160668884917</v>
+        <v>0.3926224845964746</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09753024236579626</v>
+        <v>0.06087175311457175</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2253426169484425</v>
+        <v>0.3845414939803166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2181023167882958</v>
+        <v>0.3911647269684537</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1526427984700012</v>
+        <v>0.3908960415458584</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -1172,28 +1172,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2403472093921749</v>
+        <v>0.4067350947788037</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02497964224574861</v>
+        <v>0.1935502756870308</v>
       </c>
       <c r="D22" t="n">
-        <v>0.253724138455391</v>
+        <v>0.407950376786771</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2636118850735956</v>
+        <v>0.4083820755442892</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2714745432005626</v>
+        <v>0.4429058365353965</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -1206,28 +1206,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2395480478757179</v>
+        <v>0.3856254106416099</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01194206785004184</v>
+        <v>0.1822025398004396</v>
       </c>
       <c r="D23" t="n">
-        <v>0.145155640221032</v>
+        <v>0.356112499236959</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2053355572135043</v>
+        <v>0.3869234783104482</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2395480478757179</v>
+        <v>0.3856254106416099</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01499013589504044</v>
+        <v>0.04148331934681714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03672256303649314</v>
+        <v>0.04992644299508339</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01499013589504044</v>
+        <v>0.04329049935820543</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01499013589504044</v>
+        <v>0.04821006133574349</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01499013589504044</v>
+        <v>0.04148331934681714</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
@@ -1274,28 +1274,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2831362859767167</v>
+        <v>0.4512959708160388</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04459383373851628</v>
+        <v>0.1078912777536386</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2871783411430998</v>
+        <v>0.4382048598496625</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3136516728898353</v>
+        <v>0.4531765716210113</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3230769586497532</v>
+        <v>0.492328800743995</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9693758139385386</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.678784121670293</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6830356169507434</v>
+        <v>0.807287183701351</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -1308,28 +1308,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6243028313542325</v>
+        <v>0.7000249570627041</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1227427167705553</v>
+        <v>0.07400047369089313</v>
       </c>
       <c r="D26" t="n">
-        <v>0.687303474987364</v>
+        <v>0.6138978235532552</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7211193702860406</v>
+        <v>0.6325747314171576</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7428172442594063</v>
+        <v>0.7425453515887901</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8278601831815781</v>
+        <v>0.8068714621375059</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1718586937647947</v>
+        <v>0.2086083557580598</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7718666095763929</v>
+        <v>0.7628471244432561</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8132258435646824</v>
+        <v>0.8317129246553796</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8692096301521853</v>
+        <v>0.9207453415022169</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2397696732078935</v>
+        <v>0.291150622996202</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06685048118135861</v>
+        <v>0.04657293786714288</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1889445156393021</v>
+        <v>0.2754506092834705</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1145795908973075</v>
+        <v>0.263600756254887</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2845916419847605</v>
+        <v>0.2650872308975812</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -1410,28 +1410,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1610895866265419</v>
+        <v>0.2059389670568889</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01877760939440776</v>
+        <v>0.0344412570836287</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2048143774261203</v>
+        <v>0.2306327850220527</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2171702621128827</v>
+        <v>0.2275071599502453</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2378807561811694</v>
+        <v>0.257425119020855</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -1444,28 +1444,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2923234655066831</v>
+        <v>0.3541771585194087</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3300482802824937</v>
+        <v>0.07860870792719846</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2687544315091315</v>
+        <v>0.3511729958776322</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3143490812745611</v>
+        <v>0.3620078256285024</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4623372400303473</v>
+        <v>0.3422753635755866</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -1478,28 +1478,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3381790526545191</v>
+        <v>0.3203386181407889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.116027806756916</v>
+        <v>0.1201579171828487</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2804168058993425</v>
+        <v>0.3410829236214942</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2763376753776324</v>
+        <v>0.3412049292018943</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3381790526545191</v>
+        <v>0.3203386181407889</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -1512,28 +1512,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03363405417930821</v>
+        <v>0.01903967184836204</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0425271535117349</v>
+        <v>0.04000823357912008</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04642787970956015</v>
+        <v>0.01580841203299608</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0325698839432765</v>
+        <v>0.01955644402787443</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03363405417930821</v>
+        <v>0.01903967184836204</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -1546,28 +1546,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.38163993697638</v>
+        <v>0.3450747860645091</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07408911632955915</v>
+        <v>0.1325910244915506</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2989454376396452</v>
+        <v>0.3469193335775944</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2904539907018493</v>
+        <v>0.3471842164137554</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4404474148506451</v>
+        <v>0.3900910583307595</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9641736285042944</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9733295893886703</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6509467411256606</v>
+        <v>0.663077662746568</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -1580,28 +1580,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3000141037468049</v>
+        <v>0.5995629654763408</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.001326993499314998</v>
+        <v>0.0637941975409608</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2158391194158245</v>
+        <v>0.5859589760424975</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1908313567389503</v>
+        <v>0.5774128549107699</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2861684631501288</v>
+        <v>0.3597432308313618</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -1614,28 +1614,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1905283745777875</v>
+        <v>0.79240523097531</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0292911301163408</v>
+        <v>0.09603369302998518</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2920290027909326</v>
+        <v>0.6667737278551613</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3018028815159421</v>
+        <v>0.7242548181670841</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2683617602649461</v>
+        <v>0.7428063919681875</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -1648,28 +1648,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01603461409086532</v>
+        <v>0.2522124633629511</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03177417812055187</v>
+        <v>0.02605853554818435</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03752113689875784</v>
+        <v>0.2744016724997869</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01511219849416839</v>
+        <v>0.2420117857182672</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0177251959802003</v>
+        <v>0.2609573511702838</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01094332495904023</v>
+        <v>0.08550770436710371</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.002747254484050841</v>
+        <v>-0.0003463798679234853</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.007535642108434376</v>
+        <v>0.1193202995273079</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.01212012743849787</v>
+        <v>0.09625399813839704</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0004564783526397531</v>
+        <v>0.07193014179284034</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.05626463549479733</v>
+        <v>0.2895134283136465</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0207962768977258</v>
+        <v>0.1139635566223652</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02957118884925343</v>
+        <v>0.2775864170234331</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03073476783649374</v>
+        <v>0.2845207545707883</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05868971260554351</v>
+        <v>0.3149206454253313</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -1750,28 +1750,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01637533607631321</v>
+        <v>0.2338059624270212</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.03114234430697952</v>
+        <v>0.03412249746822351</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04551551688411148</v>
+        <v>0.2280211182912022</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05877411771230123</v>
+        <v>0.2364374293741071</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01637533607631321</v>
+        <v>0.2338059624270212</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
@@ -1784,28 +1784,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02430478559316138</v>
+        <v>0.01500331203757206</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01362527519176678</v>
+        <v>0.02860107675319588</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01245124407907484</v>
+        <v>0.01084005984951381</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01243203806798683</v>
+        <v>0.01176244648501527</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02430478559316138</v>
+        <v>0.01500331203757206</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -1818,28 +1818,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08088724754412015</v>
+        <v>0.2972992506172189</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.02712951197379732</v>
+        <v>0.06694449606565044</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06170775020548461</v>
+        <v>0.3024510192247414</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09400527939826603</v>
+        <v>0.3146689572393919</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1144693926933629</v>
+        <v>0.3358005817641227</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01245848305338326</v>
+        <v>0.7807737187288342</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5250677014542384</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3670249466576894</v>
+        <v>0.5915208609189448</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -1852,28 +1852,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2691912507644751</v>
+        <v>0.8710342483351754</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08911155221728309</v>
+        <v>0.3044948834759026</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2336072963871973</v>
+        <v>0.8361970626772003</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2442853095757043</v>
+        <v>0.8421390830149189</v>
       </c>
       <c r="F42" t="n">
-        <v>0.290340649658607</v>
+        <v>0.7178945459811917</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
@@ -1886,28 +1886,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3665222175883226</v>
+        <v>0.8003479597778652</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02076844283930086</v>
+        <v>0.2459199729033713</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3942492658729088</v>
+        <v>0.8680969127665206</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3782363073662455</v>
+        <v>0.8882093555658642</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3096309993779952</v>
+        <v>0.9789013056037696</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03030144667042377</v>
+        <v>0.3514092538927703</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01685173883305415</v>
+        <v>0.1039380502444186</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01368175528622296</v>
+        <v>0.3429829316093744</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0265128824887774</v>
+        <v>0.3182691847678585</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0356701264606606</v>
+        <v>0.3240027839544887</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J44" t="n">
         <v>5</v>
@@ -1954,28 +1954,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0226169565502207</v>
+        <v>0.5181959919102767</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0223656196868286</v>
+        <v>0.1008879159650584</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003390838478400959</v>
+        <v>0.5262729185536814</v>
       </c>
       <c r="E45" t="n">
-        <v>0.006124761707640811</v>
+        <v>0.5326903701036594</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01689577954734505</v>
+        <v>0.5435618485742183</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -1988,28 +1988,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06078648097358302</v>
+        <v>0.4469632307547583</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1181337866969163</v>
+        <v>0.1195457612500782</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07729508845818296</v>
+        <v>0.4617937050482634</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08450283293038136</v>
+        <v>0.464986222975986</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04393323886067643</v>
+        <v>0.5008324223351097</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -2022,28 +2022,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.01497589246176498</v>
+        <v>0.3814585288004789</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0218454100449748</v>
+        <v>0.09286688209076228</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0005459855439205983</v>
+        <v>0.4017629144864012</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00434544352521928</v>
+        <v>0.4432801048574048</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.01497589246176498</v>
+        <v>0.3814585288004789</v>
       </c>
       <c r="G47" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J47" t="n">
         <v>5</v>
@@ -2056,28 +2056,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01949471201569465</v>
+        <v>0.03903053386835723</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.002589215097588539</v>
+        <v>0.1222135791500707</v>
       </c>
       <c r="D48" t="n">
-        <v>0.007996571901234394</v>
+        <v>0.03457034538822173</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007996571901234394</v>
+        <v>0.04242896783131373</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01949471201569465</v>
+        <v>0.03903053386835723</v>
       </c>
       <c r="G48" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -2090,28 +2090,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.08439300552671539</v>
+        <v>0.4999069713533366</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02335209419390961</v>
+        <v>0.1360657545277818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05604722925297555</v>
+        <v>0.5387670298398486</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1062797680771224</v>
+        <v>0.5392142921220324</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1404156717598746</v>
+        <v>0.4744677564280916</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001279441295168937</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3946240481338518</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3829961423581326</v>
+        <v>0.6892545750151392</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -2124,28 +2124,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9271628005060646</v>
+        <v>0.6667164855995127</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24782443517827</v>
+        <v>0.1509378991114764</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.6831878854323749</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0.6762822743993067</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8926377757391459</v>
+        <v>0.7217983334972869</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J50" t="n">
         <v>6</v>
@@ -2158,28 +2158,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.982113569604143</v>
+        <v>0.77257389311235</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4821975073421585</v>
+        <v>0.1518404240532395</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.8718089150154931</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.8432364596583956</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7980143634215175</v>
+        <v>0.6115906091303369</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J51" t="n">
         <v>6</v>
@@ -2192,28 +2192,28 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5852992927921533</v>
+        <v>0.2307296771722632</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162701515134817</v>
+        <v>0.05385195954260983</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.2465706749752175</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.2152816800859639</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5839552757707378</v>
+        <v>0.2234525977288926</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J52" t="n">
         <v>6</v>
@@ -2226,28 +2226,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4405170049350438</v>
+        <v>0.1311914063338768</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2215960692175915</v>
+        <v>0.01711587250018133</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.1561370343052569</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.1561138302731888</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4405170049350438</v>
+        <v>0.1478991329028103</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
@@ -2260,28 +2260,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5493620233082213</v>
+        <v>0.2698087411986532</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3698313811827671</v>
+        <v>0.05981444191280628</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.2808658434881853</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.2829020279102023</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5826073928299458</v>
+        <v>0.1903919045351208</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J54" t="n">
         <v>6</v>
@@ -2294,28 +2294,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5688744928309744</v>
+        <v>0.2609553848630789</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2730399352688731</v>
+        <v>0.07793729212184272</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.272345493119719</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.2783390918761369</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5688744928309744</v>
+        <v>0.2609553848630789</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J55" t="n">
         <v>6</v>
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02546525614784048</v>
+        <v>0.04726174449396095</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02377492764580735</v>
+        <v>0.03521534154211368</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06487323948284927</v>
+        <v>0.04529978023837661</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07209938604302855</v>
+        <v>0.04522628995434846</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02546525614784048</v>
+        <v>0.04726174449396095</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J56" t="n">
         <v>6</v>
@@ -2362,28 +2362,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.5493620233082213</v>
+        <v>0.2692325065621397</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2396331443419143</v>
+        <v>0.07842329578165333</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5655246027845441</v>
+        <v>0.2810008248491921</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5493620233082213</v>
+        <v>0.2753888924582762</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5505639590241116</v>
+        <v>0.2977326247121456</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.8107665258531721</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9099172743992123</v>
+        <v>0.9372835907853568</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9209650959601725</v>
+        <v>0.6000018480858986</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0.9453939888311311</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4287929069064004</v>
+        <v>0.2073711546542757</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9782931451792999</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.9619555705292336</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8864141460436494</v>
+        <v>0.9051348437203108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J58" t="n">
         <v>7</v>
@@ -2430,19 +2430,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.9918564481084069</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3229646515927168</v>
+        <v>0.5805229750981504</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9916866606809449</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.9916866606809449</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7389443631279687</v>
+        <v>0.8061090959467538</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J59" t="n">
         <v>7</v>
@@ -2464,19 +2464,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3271322122477398</v>
+        <v>0.3039655090562564</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0764376352036286</v>
+        <v>0.08266069256921615</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3130836134359053</v>
+        <v>0.321875516585257</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3041162338289317</v>
+        <v>0.3220316099309187</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3271322122477398</v>
+        <v>0.3039655090562564</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J60" t="n">
         <v>7</v>
@@ -2498,19 +2498,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3083032606399932</v>
+        <v>0.3109764009641883</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08862607550446965</v>
+        <v>0.06659805922285308</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3182045172413799</v>
+        <v>0.3350447640715563</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3197031314610915</v>
+        <v>0.3316611084095666</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3303053750514348</v>
+        <v>0.2540155702193206</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J61" t="n">
         <v>7</v>
@@ -2532,19 +2532,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3431041233440075</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1594862165278816</v>
+        <v>0.07563492786113196</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3361200049744254</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3374090493744566</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3399235621125929</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
@@ -2566,19 +2566,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3290226554888137</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1596878046055258</v>
+        <v>0.2023988982205415</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3401868532095523</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3401868532095523</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3290226554888137</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
@@ -2600,19 +2600,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01758856851797716</v>
+        <v>0.05173218222082717</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03769234921291597</v>
+        <v>0.03546136589533133</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02067761943482963</v>
+        <v>0.05403447247528144</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03314756822931372</v>
+        <v>0.05476625953876617</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01758856851797716</v>
+        <v>0.05173218222082717</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J64" t="n">
         <v>7</v>
@@ -2634,19 +2634,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3361646836645139</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1976870379164048</v>
+        <v>0.1508867445876241</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.339157731092194</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3456497024490295</v>
+        <v>0.3363799272570983</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3487699925374348</v>
+        <v>0.3361646836645139</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.855015422885822</v>
+        <v>0.8108322754852951</v>
       </c>
       <c r="J65" t="n">
         <v>7</v>
@@ -2668,28 +2668,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8922566785792312</v>
+        <v>0.8833618440610106</v>
       </c>
       <c r="C66" t="n">
-        <v>0.302036329552431</v>
+        <v>0.1723064202490458</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9812070257015455</v>
+        <v>0.8742578416864518</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9632721884510995</v>
+        <v>0.9060325122053307</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9634151486333745</v>
+        <v>0.7419984461356095</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J66" t="n">
         <v>8</v>
@@ -2702,28 +2702,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9634151486333745</v>
+        <v>0.8946684873884447</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2311886713722463</v>
+        <v>0.3062134383289331</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9812593923257028</v>
+        <v>0.9618312432443931</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9634151486333745</v>
+        <v>0.9572644793049261</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7457680898098451</v>
+        <v>0.8105344722123367</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J67" t="n">
         <v>8</v>
@@ -2736,28 +2736,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.240830659503954</v>
+        <v>0.1968879740477731</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06414611467282141</v>
+        <v>0.08364022326776077</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3010942774952594</v>
+        <v>0.1940713683434843</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2297359395308927</v>
+        <v>0.1679069996863825</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2604431965685977</v>
+        <v>0.2181119242875012</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J68" t="n">
         <v>8</v>
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1609923160294267</v>
+        <v>0.1461645288276372</v>
       </c>
       <c r="C69" t="n">
-        <v>0.009784544749897917</v>
+        <v>0.009113529795798289</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2005647631790335</v>
+        <v>0.1554083440705653</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1651280323418144</v>
+        <v>0.1564146504856859</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1970857716227494</v>
+        <v>0.1231357160329798</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J69" t="n">
         <v>8</v>
@@ -2804,28 +2804,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3073207980045515</v>
+        <v>0.2209949297487401</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1652376552315942</v>
+        <v>0.07423693651723443</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3073207980045515</v>
+        <v>0.2552603317887672</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3073207980045515</v>
+        <v>0.2580141971890088</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2949688911376509</v>
+        <v>0.2136297106285338</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J70" t="n">
         <v>8</v>
@@ -2838,28 +2838,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.3015308833470347</v>
+        <v>0.1874197331714464</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1905742905661896</v>
+        <v>0.1329021386414671</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2920920364856229</v>
+        <v>0.2352521771566773</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2920920364856229</v>
+        <v>0.2284260803602793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3015308833470347</v>
+        <v>0.1874197331714464</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J71" t="n">
         <v>8</v>
@@ -2872,28 +2872,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.00694491118571761</v>
+        <v>0.01705823022910551</v>
       </c>
       <c r="C72" t="n">
-        <v>0.008981478444682651</v>
+        <v>0.02523988325926194</v>
       </c>
       <c r="D72" t="n">
-        <v>0.004619824616246256</v>
+        <v>0.01666840214037974</v>
       </c>
       <c r="E72" t="n">
-        <v>0.009758001272425739</v>
+        <v>0.0192776234042589</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00694491118571761</v>
+        <v>0.01705823022910551</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J72" t="n">
         <v>8</v>
@@ -2906,28 +2906,28 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3015308833470347</v>
+        <v>0.2610848366134048</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08119616439754539</v>
+        <v>0.1279180603122858</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3073207980045515</v>
+        <v>0.2298004999874264</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3015308833470347</v>
+        <v>0.2298004999874264</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2778257305974257</v>
+        <v>0.259856761579819</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9798613733810233</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0.8397841965879074</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7414371333001344</v>
+        <v>0.6619586476212309</v>
       </c>
       <c r="J73" t="n">
         <v>8</v>
@@ -2940,28 +2940,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.6867348786081418</v>
+        <v>0.9838895558538738</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1959579875953181</v>
+        <v>0.372434583280692</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8378976404013003</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8527991269596922</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.480581258258606</v>
+        <v>0.8243992900200393</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J74" t="n">
         <v>9</v>
@@ -2974,28 +2974,28 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9114964947959729</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1669171381926783</v>
+        <v>0.3614818494274964</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9097901234153642</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8700724753145557</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6406599610256288</v>
+        <v>0.8949305499457235</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J75" t="n">
         <v>9</v>
@@ -3008,28 +3008,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1271638793975644</v>
+        <v>0.3567654844934963</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03368791046559071</v>
+        <v>0.1518504005822457</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1372134859670966</v>
+        <v>0.3851239374672503</v>
       </c>
       <c r="E76" t="n">
-        <v>0.138482400026767</v>
+        <v>0.3480505725175244</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1271638793975644</v>
+        <v>0.3658725965062353</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J76" t="n">
         <v>9</v>
@@ -3042,28 +3042,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.03697069495190122</v>
+        <v>0.3966798369005941</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00555080828280357</v>
+        <v>0.1040948506673068</v>
       </c>
       <c r="D77" t="n">
-        <v>0.04820596215986847</v>
+        <v>0.4054096738515705</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06101349285558093</v>
+        <v>0.4071236079540899</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01283424892936679</v>
+        <v>0.3730735755945959</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J77" t="n">
         <v>9</v>
@@ -3076,28 +3076,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2353535854831232</v>
+        <v>0.4261070974544841</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1911892764698602</v>
+        <v>0.2164378413270628</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2422549526801874</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2308557140416001</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2411256852914657</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J78" t="n">
         <v>9</v>
@@ -3110,28 +3110,28 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1841040020552174</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03466543565888659</v>
+        <v>0.3311741183713452</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07356989905169777</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1018097250830929</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1841040020552174</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J79" t="n">
         <v>9</v>
@@ -3144,28 +3144,28 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01332616657259689</v>
+        <v>0.05387055281045551</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01020079358542956</v>
+        <v>0.07834122301649309</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01332616657259689</v>
+        <v>0.05262680225946895</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01332616657259689</v>
+        <v>0.07795697216639584</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01332616657259689</v>
+        <v>0.05387055281045551</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J80" t="n">
         <v>9</v>
@@ -3178,28 +3178,28 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2338222575150955</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09963676415766763</v>
+        <v>0.1642941319750164</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2264509382121075</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2342600125889385</v>
+        <v>0.4210620196404014</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2385602513943503</v>
+        <v>0.4226810243638111</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1895488396878687</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.651675825721669</v>
+        <v>0.8940225240774227</v>
       </c>
       <c r="I81" t="n">
-        <v>0.6444353443157311</v>
+        <v>0.8729444001278688</v>
       </c>
       <c r="J81" t="n">
         <v>9</v>
@@ -3212,28 +3212,28 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3449473068762582</v>
+        <v>0.7812273261434093</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0378202791639386</v>
+        <v>0.2558804414937154</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3912358918324949</v>
+        <v>0.9516743812971733</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3617426054649638</v>
+        <v>0.9678187218643117</v>
       </c>
       <c r="F82" t="n">
-        <v>0.317895919885878</v>
+        <v>0.9027267006132039</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J82" t="n">
         <v>10</v>
@@ -3246,28 +3246,28 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4183037885087582</v>
+        <v>0.7716525514910293</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03734931660717043</v>
+        <v>0.2945000016180704</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3164333568007061</v>
+        <v>0.8576832055903962</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3164333568007061</v>
+        <v>0.8630811680421774</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2778101404945867</v>
+        <v>0.5208011111404394</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J83" t="n">
         <v>10</v>
@@ -3280,28 +3280,28 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09886342871101335</v>
+        <v>0.2103523280223087</v>
       </c>
       <c r="C84" t="n">
-        <v>0.003943655567289274</v>
+        <v>0.06778403470112394</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1320966838167112</v>
+        <v>0.2403168843393103</v>
       </c>
       <c r="E84" t="n">
-        <v>0.03684536372289771</v>
+        <v>0.179907486744549</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09886342871101335</v>
+        <v>0.2331155660429138</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J84" t="n">
         <v>10</v>
@@ -3314,28 +3314,28 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.008132943057341708</v>
+        <v>0.1763471272154596</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.002257620616683506</v>
+        <v>0.05517411419280177</v>
       </c>
       <c r="D85" t="n">
-        <v>0.007986289600959297</v>
+        <v>0.1731182053651752</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.002568465162037585</v>
+        <v>0.1873677708909177</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.00965355678199703</v>
+        <v>0.1357574979986522</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J85" t="n">
         <v>10</v>
@@ -3348,28 +3348,28 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1065186226192481</v>
+        <v>0.2698012070349309</v>
       </c>
       <c r="C86" t="n">
-        <v>0.016613015355963</v>
+        <v>0.1062565486454384</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1062610518673655</v>
+        <v>0.2700509149303881</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1212344730323167</v>
+        <v>0.2708651025378103</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1175303223441464</v>
+        <v>0.2663563481825578</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I86" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J86" t="n">
         <v>10</v>
@@ -3382,28 +3382,28 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07600588305484196</v>
+        <v>0.2688930129501329</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.0009266210192993351</v>
+        <v>0.1351107490012062</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08823172407380481</v>
+        <v>0.2733792149567754</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09463400406910123</v>
+        <v>0.2700509149303881</v>
       </c>
       <c r="F87" t="n">
-        <v>0.07600588305484196</v>
+        <v>0.2688930129501329</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J87" t="n">
         <v>10</v>
@@ -3416,28 +3416,28 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.04948913838170758</v>
+        <v>0.04286524158255801</v>
       </c>
       <c r="C88" t="n">
-        <v>0.02996977357954621</v>
+        <v>0.02278259005266747</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03250364951219639</v>
+        <v>0.04100215332945924</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03240927356353504</v>
+        <v>0.04496777233589611</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04948913838170758</v>
+        <v>0.04286524158255801</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J88" t="n">
         <v>10</v>
@@ -3450,28 +3450,28 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.087006943985352</v>
+        <v>0.2638081866377497</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01412471063242523</v>
+        <v>0.1202909660802321</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1127525153772933</v>
+        <v>0.2693087700007226</v>
       </c>
       <c r="E89" t="n">
-        <v>0.114691756175568</v>
+        <v>0.2693087700007226</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1122635793579445</v>
+        <v>0.2545355351603839</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2950717576598724</v>
+        <v>0.914526636280851</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9024592863114443</v>
+        <v>0.9779422651129313</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4739872407255463</v>
+        <v>0.6925383714468192</v>
       </c>
       <c r="J89" t="n">
         <v>10</v>
@@ -3484,28 +3484,28 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9169261770741914</v>
+        <v>0.6290809415301903</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3416418725075275</v>
+        <v>0.1666192053278446</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9824684431977559</v>
+        <v>0.8077228665418945</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9824684431977559</v>
+        <v>0.8111175623998946</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6102698724372831</v>
+        <v>0.6204560120350182</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J90" t="n">
         <v>11</v>
@@ -3518,28 +3518,28 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0.7147949990707245</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8984113567380064</v>
+        <v>0.1856417832916024</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.8240272513969428</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0.8298593276338548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5718986441514988</v>
+        <v>0.5878065815995883</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J91" t="n">
         <v>11</v>
@@ -3552,28 +3552,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3654102738674705</v>
+        <v>0.06225051720091259</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3245663143860447</v>
+        <v>0.04209537934971196</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3941467882977317</v>
+        <v>0.09608377304334684</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3941467882977317</v>
+        <v>0.06984008991917004</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3807607607607608</v>
+        <v>0.1181145319535267</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J92" t="n">
         <v>11</v>
@@ -3586,28 +3586,28 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.2546623099984392</v>
+        <v>0.06035149254961851</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2248256528977442</v>
+        <v>0.02221655907893407</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2546623099984392</v>
+        <v>0.05694076920854658</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2546623099984392</v>
+        <v>0.04921508296913722</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2546623099984392</v>
+        <v>0.0561378088714173</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J93" t="n">
         <v>11</v>
@@ -3620,28 +3620,28 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3799987205250364</v>
+        <v>0.1480870948970578</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3739583333333333</v>
+        <v>0.05589258444253205</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3649823596387411</v>
+        <v>0.1478029317659713</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3649823596387411</v>
+        <v>0.1547743558316937</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3649823596387411</v>
+        <v>0.1521015833892251</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J94" t="n">
         <v>11</v>
@@ -3654,28 +3654,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3799987205250364</v>
+        <v>0.111544203134796</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3786085119868904</v>
+        <v>0.02077755771998415</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3799987205250364</v>
+        <v>0.1656618026300797</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3799987205250364</v>
+        <v>0.1558947448043264</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3799987205250364</v>
+        <v>0.111544203134796</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J95" t="n">
         <v>11</v>
@@ -3688,28 +3688,28 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.09029683231548935</v>
+        <v>0.01352191803254581</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1560669448827448</v>
+        <v>0.01090820179133335</v>
       </c>
       <c r="D96" t="n">
-        <v>0.09029683231548935</v>
+        <v>0.01820025147085025</v>
       </c>
       <c r="E96" t="n">
-        <v>0.09029683231548935</v>
+        <v>0.01718673121149109</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09029683231548935</v>
+        <v>0.01352191803254581</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J96" t="n">
         <v>11</v>
@@ -3722,28 +3722,28 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3673460869707583</v>
+        <v>0.1631029353196073</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2640374239945898</v>
+        <v>0.05256533444716571</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3611469116907121</v>
+        <v>0.1674385046113136</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3925798304233991</v>
+        <v>0.1684702882928578</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3736955845154768</v>
+        <v>0.1654920955545466</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.4044864429405461</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8580700060963219</v>
+        <v>0.9833551203394642</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9171635738537958</v>
+        <v>0.5598844520651626</v>
       </c>
       <c r="J97" t="n">
         <v>11</v>
@@ -3756,28 +3756,28 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.6770357742743047</v>
+        <v>0.9315233651476447</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1838368512194113</v>
+        <v>0.301215603820541</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6176577639128191</v>
+        <v>0.9825817905689981</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6507293013244118</v>
+        <v>0.980789361173402</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5833195153765667</v>
+        <v>0.7603473939923406</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J98" t="n">
         <v>12</v>
@@ -3790,28 +3790,28 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8968088862692655</v>
+        <v>0.9642181492324177</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4446027620049825</v>
+        <v>0.7715313702332287</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.9862056109609469</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0.9862056109609469</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8422323850336801</v>
+        <v>0.6106224031508569</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I99" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J99" t="n">
         <v>12</v>
@@ -3824,28 +3824,28 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3275049682029448</v>
+        <v>0.4045591317448974</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2851010145427567</v>
+        <v>0.2854207356432297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3101849538726537</v>
+        <v>0.4129177695242534</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3345435290607182</v>
+        <v>0.4063779315896777</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3355411078368596</v>
+        <v>0.4045591317448974</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I100" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J100" t="n">
         <v>12</v>
@@ -3858,28 +3858,28 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3361573109293616</v>
+        <v>0.4123414679108424</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2503255501369711</v>
+        <v>0.3108975775604323</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3177952099382902</v>
+        <v>0.411174897651139</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3088130491128819</v>
+        <v>0.4129623771190843</v>
       </c>
       <c r="F101" t="n">
-        <v>0.279388108119636</v>
+        <v>0.4138823159525503</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J101" t="n">
         <v>12</v>
@@ -3892,28 +3892,28 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.3470157610867373</v>
+        <v>0.4084503268673551</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1575307282927622</v>
+        <v>0.2847610325934575</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3470157610867373</v>
+        <v>0.4113180334729996</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3470157610867373</v>
+        <v>0.4136284085354411</v>
       </c>
       <c r="F102" t="n">
-        <v>0.359315301346503</v>
+        <v>0.4102877280818788</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J102" t="n">
         <v>12</v>
@@ -3926,28 +3926,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3462708508818269</v>
+        <v>0.4053522329780278</v>
       </c>
       <c r="C103" t="n">
-        <v>0.227505612967959</v>
+        <v>0.3099202262761855</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3462708508818269</v>
+        <v>0.4124597753775492</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3462708508818269</v>
+        <v>0.4124597753775492</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3462708508818269</v>
+        <v>0.4053522329780278</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J103" t="n">
         <v>12</v>
@@ -3960,28 +3960,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0526111438068581</v>
+        <v>0.1303928303033008</v>
       </c>
       <c r="C104" t="n">
-        <v>0.09806807076635904</v>
+        <v>0.142693622420321</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06708813752605569</v>
+        <v>0.1303928303033008</v>
       </c>
       <c r="E104" t="n">
-        <v>0.05519456447501016</v>
+        <v>0.1303928303033008</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0526111438068581</v>
+        <v>0.1303928303033008</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J104" t="n">
         <v>12</v>
@@ -3994,28 +3994,28 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3202422067476977</v>
+        <v>0.3472925321099294</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1407870826334977</v>
+        <v>0.2532659678220107</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2788675986847091</v>
+        <v>0.3479612479870242</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2782515391882805</v>
+        <v>0.3462959304763607</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3077717820363127</v>
+        <v>0.2799390261780952</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9528734460974119</v>
+        <v>0.861996455426415</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7913608247347488</v>
+        <v>0.9072029086765745</v>
       </c>
       <c r="J105" t="n">
         <v>12</v>
@@ -4028,28 +4028,28 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.827976144530578</v>
+        <v>0.4724662053726794</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2789581248258668</v>
+        <v>0.07696986712011891</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9032203271134212</v>
+        <v>0.5770490846000398</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9199764127172109</v>
+        <v>0.5964624133292984</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7153076334675412</v>
+        <v>0.4450433682005233</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I106" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J106" t="n">
         <v>13</v>
@@ -4062,28 +4062,28 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.638874786661866</v>
+        <v>0.5421975234037054</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2879557968162325</v>
+        <v>0.1817133689750886</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6398803790335724</v>
+        <v>0.6083787483320882</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6577070037383373</v>
+        <v>0.5744372446075345</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4450890366669049</v>
+        <v>0.4037687737654718</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I107" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J107" t="n">
         <v>13</v>
@@ -4096,28 +4096,28 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.2774793154233329</v>
+        <v>0.1744892187784891</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2776685519240795</v>
+        <v>0.07369106292117593</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2928834678347259</v>
+        <v>0.1868536899642024</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2977635363108675</v>
+        <v>0.1700490315288533</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2774793154233329</v>
+        <v>0.1744892187784891</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J108" t="n">
         <v>13</v>
@@ -4130,28 +4130,28 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3272917953759421</v>
+        <v>0.0985005440114082</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2715793073807191</v>
+        <v>0.01982525851849413</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3272917953759421</v>
+        <v>0.115681634474967</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3212555738710304</v>
+        <v>0.09629899119180761</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3017690919264144</v>
+        <v>0.105579318507688</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J109" t="n">
         <v>13</v>
@@ -4164,28 +4164,28 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.3212555738710304</v>
+        <v>0.1741899076009174</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1928523232171825</v>
+        <v>0.0989618103082307</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3212555738710304</v>
+        <v>0.19965700133513</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3212555738710304</v>
+        <v>0.2026159705059773</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3235836905636187</v>
+        <v>0.1670208448138134</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J110" t="n">
         <v>13</v>
@@ -4198,28 +4198,28 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3320003024278463</v>
+        <v>0.1317459623740355</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3000884447572217</v>
+        <v>0.07294002302186958</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3199070033299664</v>
+        <v>0.1813182667267719</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3199070033299664</v>
+        <v>0.1568132975378839</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3320003024278463</v>
+        <v>0.1317459623740355</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H111" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J111" t="n">
         <v>13</v>
@@ -4232,28 +4232,28 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1152206351844896</v>
+        <v>0.07710185773293161</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06072298044401057</v>
+        <v>0.09726639896223598</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1094518467295971</v>
+        <v>0.07710185773293161</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1147594499254781</v>
+        <v>0.07710185773293161</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1152206351844896</v>
+        <v>0.07710185773293161</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I112" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J112" t="n">
         <v>13</v>
@@ -4266,28 +4266,28 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.2754541076198624</v>
+        <v>0.2034499936184285</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2075532761334341</v>
+        <v>0.08911064140192801</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2628045617760984</v>
+        <v>0.188635312472024</v>
       </c>
       <c r="E113" t="n">
-        <v>0.256113050994119</v>
+        <v>0.1913268113541843</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2373606306804049</v>
+        <v>0.1954395839892423</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.7801021034215351</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9121690911162597</v>
+        <v>0.758795043130211</v>
       </c>
       <c r="I113" t="n">
-        <v>0.8535011999949922</v>
+        <v>0.6699775851490887</v>
       </c>
       <c r="J113" t="n">
         <v>13</v>
@@ -4300,28 +4300,28 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4445596952328116</v>
+        <v>0.7749292630661724</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1003363691936431</v>
+        <v>0.2435301753790584</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4607709589586272</v>
+        <v>0.8638226830451969</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5019295923205798</v>
+        <v>0.8642037430885265</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4618630330599047</v>
+        <v>0.7421905648812024</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H114" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I114" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J114" t="n">
         <v>14</v>
@@ -4334,28 +4334,28 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6775233506956634</v>
+        <v>0.9876908234256938</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1280331368126425</v>
+        <v>0.5529870359735403</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7160092484951763</v>
+        <v>0.9877380414835313</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7243375423336507</v>
+        <v>0.9869994642486551</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5439176100025751</v>
+        <v>0.7787785397573065</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H115" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I115" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J115" t="n">
         <v>14</v>
@@ -4368,28 +4368,28 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1556276758896019</v>
+        <v>0.2940283660399038</v>
       </c>
       <c r="C116" t="n">
-        <v>0.03364318438352305</v>
+        <v>0.174400636456114</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1779381812212033</v>
+        <v>0.2439582906725214</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1678434457160304</v>
+        <v>0.2343645704274893</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1556276758896019</v>
+        <v>0.2940283660399038</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H116" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J116" t="n">
         <v>14</v>
@@ -4402,28 +4402,28 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.09042362164238452</v>
+        <v>0.2873967493870199</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.01450509178495059</v>
+        <v>0.2309730341703684</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1178296190787268</v>
+        <v>0.303629160360314</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1503585182308645</v>
+        <v>0.3012884325142112</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06803733129808542</v>
+        <v>0.2742877911740663</v>
       </c>
       <c r="G117" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H117" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I117" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J117" t="n">
         <v>14</v>
@@ -4436,28 +4436,28 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1679639917625097</v>
+        <v>0.3440677127512692</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0990324723725975</v>
+        <v>0.2092176600269806</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1557990595769356</v>
+        <v>0.3447279024229403</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1547600589811101</v>
+        <v>0.3440677127512692</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1933383584714253</v>
+        <v>0.3495287743762727</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H118" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J118" t="n">
         <v>14</v>
@@ -4470,28 +4470,28 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1947552017519645</v>
+        <v>0.3059939757949035</v>
       </c>
       <c r="C119" t="n">
-        <v>0.118984947310738</v>
+        <v>0.2654792516556381</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1868787978714825</v>
+        <v>0.3089757871339435</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2099418474181096</v>
+        <v>0.3108416626859516</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1947552017519645</v>
+        <v>0.3059939757949035</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H119" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I119" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J119" t="n">
         <v>14</v>
@@ -4504,28 +4504,28 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.02176092407983647</v>
+        <v>0.07206925354518019</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04271623063630926</v>
+        <v>0.07332867571592913</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02029606155055032</v>
+        <v>0.07291414642515535</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02029606155055032</v>
+        <v>0.07949767344730127</v>
       </c>
       <c r="F120" t="n">
-        <v>0.02176092407983647</v>
+        <v>0.07206925354518019</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H120" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I120" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J120" t="n">
         <v>14</v>
@@ -4538,28 +4538,28 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1833568951661084</v>
+        <v>0.3157693944721662</v>
       </c>
       <c r="C121" t="n">
-        <v>0.089615533896914</v>
+        <v>0.16247591928959</v>
       </c>
       <c r="D121" t="n">
-        <v>0.09671117962114799</v>
+        <v>0.3083865566871659</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1001606758262345</v>
+        <v>0.313064196681298</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1503616778983928</v>
+        <v>0.301375860685287</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6946703360493097</v>
+        <v>0.9933372314236928</v>
       </c>
       <c r="H121" t="n">
-        <v>0.937939909974749</v>
+        <v>0.8360583160505717</v>
       </c>
       <c r="I121" t="n">
-        <v>0.6856013355961601</v>
+        <v>0.8526598707548813</v>
       </c>
       <c r="J121" t="n">
         <v>14</v>
@@ -4572,28 +4572,28 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.3990503589911161</v>
+        <v>0.5859826567230868</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1531623620000783</v>
+        <v>0.09555185908603445</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4565275633231538</v>
+        <v>0.6179473878264764</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4189155037741586</v>
+        <v>0.6050411106256198</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4447246445636771</v>
+        <v>0.4882607632240809</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H122" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I122" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J122" t="n">
         <v>15</v>
@@ -4606,28 +4606,28 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.4995369072991916</v>
+        <v>0.6575742104328648</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0295484941153174</v>
+        <v>0.2790035532974834</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5251367517903862</v>
+        <v>0.6672744849738789</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5423216291291072</v>
+        <v>0.6752539183288578</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4357892960889024</v>
+        <v>0.2894479375573665</v>
       </c>
       <c r="G123" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H123" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I123" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J123" t="n">
         <v>15</v>
@@ -4640,28 +4640,28 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.08419182734687383</v>
+        <v>0.1798102163674176</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01044068434387597</v>
+        <v>0.09102830715585794</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1530878629958201</v>
+        <v>0.2184463553220458</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1550462867064596</v>
+        <v>0.2258052138467142</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1167818154623854</v>
+        <v>0.1798102163674176</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H124" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J124" t="n">
         <v>15</v>
@@ -4674,28 +4674,28 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.06566329423534151</v>
+        <v>0.1205590093567096</v>
       </c>
       <c r="C125" t="n">
-        <v>0.007197752979194624</v>
+        <v>0.05836501674266605</v>
       </c>
       <c r="D125" t="n">
-        <v>0.07523583430731148</v>
+        <v>0.134520818591522</v>
       </c>
       <c r="E125" t="n">
-        <v>0.06576388967033087</v>
+        <v>0.1323767855327859</v>
       </c>
       <c r="F125" t="n">
-        <v>0.03805501308147995</v>
+        <v>0.127595066888972</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H125" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J125" t="n">
         <v>15</v>
@@ -4708,28 +4708,28 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.08941197069924497</v>
+        <v>0.253868746354073</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01293978243829703</v>
+        <v>0.1325768134796604</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1441784794280985</v>
+        <v>0.2671087207494495</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1427507913905276</v>
+        <v>0.2600686278495407</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1248918475064945</v>
+        <v>0.2368625673545175</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H126" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I126" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J126" t="n">
         <v>15</v>
@@ -4742,28 +4742,28 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.09662334537780862</v>
+        <v>0.2026456069464098</v>
       </c>
       <c r="C127" t="n">
-        <v>0.008578641592783591</v>
+        <v>0.1099218610553215</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1504048998970036</v>
+        <v>0.2222204501523855</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1211179679131884</v>
+        <v>0.2111670647084561</v>
       </c>
       <c r="F127" t="n">
-        <v>0.09662334537780862</v>
+        <v>0.2026456069464098</v>
       </c>
       <c r="G127" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H127" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I127" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J127" t="n">
         <v>15</v>
@@ -4776,28 +4776,28 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01308916978747295</v>
+        <v>0.07348981786966635</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04483411828507752</v>
+        <v>0.07614090500889784</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01518002417570244</v>
+        <v>0.06573879541562036</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01136980599725221</v>
+        <v>0.06573879541562036</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01308916978747295</v>
+        <v>0.07348981786966635</v>
       </c>
       <c r="G128" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H128" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J128" t="n">
         <v>15</v>
@@ -4810,28 +4810,28 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.1972634800771621</v>
+        <v>0.1408869381747465</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0531372861868022</v>
+        <v>0.09827127621319862</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1675182548720347</v>
+        <v>0.1679428991519779</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1643465890673585</v>
+        <v>0.1765205236897733</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1394092713380353</v>
+        <v>0.1270779184716598</v>
       </c>
       <c r="G129" t="n">
-        <v>0.6325637451095012</v>
+        <v>0.8224924408613244</v>
       </c>
       <c r="H129" t="n">
-        <v>0.7468761135011501</v>
+        <v>0.8317498759087127</v>
       </c>
       <c r="I129" t="n">
-        <v>0.5597802414844677</v>
+        <v>0.769687220152828</v>
       </c>
       <c r="J129" t="n">
         <v>15</v>
@@ -4844,28 +4844,28 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.8787207038700264</v>
+        <v>0.6530340870319518</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6534669620717657</v>
+        <v>0.1907836106381301</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9145973921021551</v>
+        <v>0.6627206030833315</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8933136606708223</v>
+        <v>0.7122481549331404</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4973978632155521</v>
+        <v>0.6149308204787458</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H130" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J130" t="n">
         <v>16</v>
@@ -4878,28 +4878,28 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.8626031016335092</v>
+        <v>0.6856494987017667</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8053805334358696</v>
+        <v>0.375321018026821</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8392806240750019</v>
+        <v>0.7598048558009566</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8504826020626095</v>
+        <v>0.7346909787538629</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3787851555817209</v>
+        <v>0.5110899964552682</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H131" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J131" t="n">
         <v>16</v>
@@ -4912,28 +4912,28 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3896347747159997</v>
+        <v>0.1572652910467282</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4013790429413546</v>
+        <v>0.07347729977768507</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3710751061657833</v>
+        <v>0.1704324804301846</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3871293653177946</v>
+        <v>0.1644790050763855</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3896347747159997</v>
+        <v>0.1572652910467282</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J132" t="n">
         <v>16</v>
@@ -4946,28 +4946,28 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.3457774850721073</v>
+        <v>0.1476382939036476</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2879394004939216</v>
+        <v>0.02261115893243209</v>
       </c>
       <c r="D133" t="n">
-        <v>0.348942893901221</v>
+        <v>0.1273456267552933</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3468168542553642</v>
+        <v>0.1341597599392268</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3497382792849414</v>
+        <v>0.1138540696177335</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H133" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J133" t="n">
         <v>16</v>
@@ -4980,28 +4980,28 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3499786908324578</v>
+        <v>0.2135471150731323</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3834456488064171</v>
+        <v>0.1090855393077026</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3119103038242753</v>
+        <v>0.21682332583183</v>
       </c>
       <c r="E134" t="n">
-        <v>0.301473910084669</v>
+        <v>0.2157320655992603</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3499786908324578</v>
+        <v>0.2167382564995048</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J134" t="n">
         <v>16</v>
@@ -5014,28 +5014,28 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.3807130798039534</v>
+        <v>0.1814022608982294</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4173015786395194</v>
+        <v>0.06575099913234486</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2860548060025279</v>
+        <v>0.1863663224342327</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2921674313994448</v>
+        <v>0.184325802763975</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3807130798039534</v>
+        <v>0.1814022608982294</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J135" t="n">
         <v>16</v>
@@ -5048,28 +5048,28 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1427276680745445</v>
+        <v>0.01777193882899503</v>
       </c>
       <c r="C136" t="n">
-        <v>0.202700113753516</v>
+        <v>0.06585327013009716</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1474125476438841</v>
+        <v>0.01081554250662217</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1474125476438841</v>
+        <v>0.01081554250662217</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1427276680745445</v>
+        <v>0.01777193882899503</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J136" t="n">
         <v>16</v>
@@ -5082,28 +5082,28 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.191334918788718</v>
+        <v>0.180293207037525</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2699759948869575</v>
+        <v>0.1210355298101376</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2136838036975308</v>
+        <v>0.1893099710478406</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2109531307423745</v>
+        <v>0.1590546819679231</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2252712120086804</v>
+        <v>0.200787121322931</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.786046164498345</v>
       </c>
       <c r="H137" t="n">
-        <v>0.6803881272305476</v>
+        <v>0.6725607804192022</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9311002417096556</v>
+        <v>0.7643996175473176</v>
       </c>
       <c r="J137" t="n">
         <v>16</v>
@@ -5116,28 +5116,28 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.7659442969429336</v>
+        <v>0.7027974003028297</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4345626015398819</v>
+        <v>0.17724107285081</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5751518553822125</v>
+        <v>0.7831472742584724</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7055870579129371</v>
+        <v>0.8033090899320916</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5193007043236221</v>
+        <v>0.6484168446136442</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H138" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I138" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J138" t="n">
         <v>17</v>
@@ -5150,28 +5150,28 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.846356209823406</v>
+        <v>0.8532479904997878</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6594429194045963</v>
+        <v>0.5338216092340849</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9261975451048008</v>
+        <v>0.8685273697527366</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9386198727935809</v>
+        <v>0.856394241317729</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6781118911735068</v>
+        <v>0.4600521469521333</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H139" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I139" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J139" t="n">
         <v>17</v>
@@ -5184,28 +5184,28 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.2553139481883813</v>
+        <v>0.2801866016307372</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2018760482837474</v>
+        <v>0.1646898538707127</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2638830793149635</v>
+        <v>0.2758856904486441</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2522217623042077</v>
+        <v>0.2882507587193227</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2553139481883813</v>
+        <v>0.2744115665085036</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I140" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J140" t="n">
         <v>17</v>
@@ -5218,28 +5218,28 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2597031134778011</v>
+        <v>0.2894292574924143</v>
       </c>
       <c r="C141" t="n">
-        <v>0.174300797700108</v>
+        <v>0.1578467187075168</v>
       </c>
       <c r="D141" t="n">
-        <v>0.267898776339617</v>
+        <v>0.314457767809274</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2558874397278681</v>
+        <v>0.3068732360690228</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2633459894656452</v>
+        <v>0.2636051339264368</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H141" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I141" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J141" t="n">
         <v>17</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.2926510146132913</v>
+        <v>0.2940477615479842</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1828671597680049</v>
+        <v>0.2014917789607323</v>
       </c>
       <c r="D142" t="n">
-        <v>0.227192211694911</v>
+        <v>0.323033552435339</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2183264456891822</v>
+        <v>0.3320184270604333</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2972261191105535</v>
+        <v>0.3088552944800246</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I142" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J142" t="n">
         <v>17</v>
@@ -5286,28 +5286,28 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2158834311378812</v>
+        <v>0.2655451845669943</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2426148602662525</v>
+        <v>0.246827137497408</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2293734451472207</v>
+        <v>0.2334204996139369</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2158834311378812</v>
+        <v>0.2394311530496538</v>
       </c>
       <c r="F143" t="n">
-        <v>0.2158834311378812</v>
+        <v>0.2655451845669943</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H143" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I143" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J143" t="n">
         <v>17</v>
@@ -5320,28 +5320,28 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.05733179062101891</v>
+        <v>0.03360210426139233</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1064420126052721</v>
+        <v>0.0906167864237768</v>
       </c>
       <c r="D144" t="n">
-        <v>0.05630142324120106</v>
+        <v>0.02695791911463182</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05534328795999747</v>
+        <v>0.02695791911463182</v>
       </c>
       <c r="F144" t="n">
-        <v>0.05733179062101891</v>
+        <v>0.03360210426139233</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H144" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I144" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J144" t="n">
         <v>17</v>
@@ -5354,28 +5354,28 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.2168772543561274</v>
+        <v>0.2472365284257939</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1291624211678318</v>
+        <v>0.1744378913219655</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2405263524990109</v>
+        <v>0.2737475844689347</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2177593345885586</v>
+        <v>0.252286741956534</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2167884558853038</v>
+        <v>0.2557956515946591</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.9917337852820852</v>
       </c>
       <c r="H145" t="n">
-        <v>0.8012061453695292</v>
+        <v>0.9181440160181241</v>
       </c>
       <c r="I145" t="n">
-        <v>0.812421598460884</v>
+        <v>0.8048553378450946</v>
       </c>
       <c r="J145" t="n">
         <v>17</v>
@@ -5388,28 +5388,28 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.8969645707458944</v>
+        <v>0.6240985227900724</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5907392168533082</v>
+        <v>0.2246910633621291</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9176308724914648</v>
+        <v>0.559496249672617</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9309322946758194</v>
+        <v>0.5807136860698355</v>
       </c>
       <c r="F146" t="n">
-        <v>0.402189340940399</v>
+        <v>0.4804970869916335</v>
       </c>
       <c r="G146" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H146" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J146" t="n">
         <v>18</v>
@@ -5422,28 +5422,28 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.5168349868096971</v>
+        <v>0.6584737491540807</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7931959834841336</v>
+        <v>0.09466633612353141</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5082555538942612</v>
+        <v>0.7567486582567419</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5264128685104335</v>
+        <v>0.7603507228733285</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4823416927411124</v>
+        <v>0.6216500938576597</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H147" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J147" t="n">
         <v>18</v>
@@ -5456,28 +5456,28 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.2876862403833517</v>
+        <v>0.1579235047771797</v>
       </c>
       <c r="C148" t="n">
-        <v>0.296388213212478</v>
+        <v>0.03502907561664086</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3415649797422416</v>
+        <v>0.1407393398340123</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3276433944796872</v>
+        <v>0.12752514090457</v>
       </c>
       <c r="F148" t="n">
-        <v>0.2876862403833517</v>
+        <v>0.164926851230503</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H148" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J148" t="n">
         <v>18</v>
@@ -5490,28 +5490,28 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.3214326505361614</v>
+        <v>0.07516761711961754</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2249184727666282</v>
+        <v>0.008074024681969395</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3214326505361614</v>
+        <v>0.08322259322588707</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3214326505361614</v>
+        <v>0.08623857701372359</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2806467881960092</v>
+        <v>0.09431551642975149</v>
       </c>
       <c r="G149" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H149" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J149" t="n">
         <v>18</v>
@@ -5524,28 +5524,28 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.215452984700657</v>
+        <v>0.1655590637093164</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3352540902149864</v>
+        <v>0.06467774368718099</v>
       </c>
       <c r="D150" t="n">
-        <v>0.215452984700657</v>
+        <v>0.155100670070251</v>
       </c>
       <c r="E150" t="n">
-        <v>0.215452984700657</v>
+        <v>0.1636856293503688</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2117444952333585</v>
+        <v>0.146492553100969</v>
       </c>
       <c r="G150" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H150" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J150" t="n">
         <v>18</v>
@@ -5558,28 +5558,28 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.2108248442536638</v>
+        <v>0.1680743656189999</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3248158659096264</v>
+        <v>0.03920338085422116</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2165829337246865</v>
+        <v>0.1789221873738827</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2165829337246865</v>
+        <v>0.1736512081707269</v>
       </c>
       <c r="F151" t="n">
-        <v>0.2108248442536638</v>
+        <v>0.1680743656189999</v>
       </c>
       <c r="G151" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H151" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J151" t="n">
         <v>18</v>
@@ -5592,28 +5592,28 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.09441300732671348</v>
+        <v>0.02197100966313907</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1581403057653681</v>
+        <v>0.02005495805886185</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0880011000680338</v>
+        <v>0.03180730556844796</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1122356357793261</v>
+        <v>0.03532606962405434</v>
       </c>
       <c r="F152" t="n">
-        <v>0.09441300732671348</v>
+        <v>0.02197100966313907</v>
       </c>
       <c r="G152" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H152" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J152" t="n">
         <v>18</v>
@@ -5626,28 +5626,28 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.258067372856533</v>
+        <v>0.1819810999547309</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2451262749282467</v>
+        <v>0.086927655284795</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2695090361194992</v>
+        <v>0.1491134313909992</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2864780837534337</v>
+        <v>0.1502902505559002</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2708264860153282</v>
+        <v>0.1650576271320327</v>
       </c>
       <c r="G153" t="n">
-        <v>0.8901286436478772</v>
+        <v>0.9175700724356641</v>
       </c>
       <c r="H153" t="n">
-        <v>0.7096103749493274</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0.8971233239415768</v>
+        <v>0.630338730484985</v>
       </c>
       <c r="J153" t="n">
         <v>18</v>
@@ -5660,28 +5660,28 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.3491530275173418</v>
+        <v>0.4914917396466489</v>
       </c>
       <c r="C154" t="n">
-        <v>0.05277204463754399</v>
+        <v>0.07519454860336654</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2744432549363588</v>
+        <v>0.5112445435023594</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2689669073619604</v>
+        <v>0.5170845019397786</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4155199359005738</v>
+        <v>0.4402655627943151</v>
       </c>
       <c r="G154" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H154" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J154" t="n">
         <v>19</v>
@@ -5694,28 +5694,28 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.4988154066590368</v>
+        <v>0.5185910101761024</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1215015757192251</v>
+        <v>0.09986707707925742</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5828350659940709</v>
+        <v>0.5621781010074771</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5777809439364491</v>
+        <v>0.5661458431623716</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4056649159231194</v>
+        <v>0.4299178867706223</v>
       </c>
       <c r="G155" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H155" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I155" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J155" t="n">
         <v>19</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1027708563596904</v>
+        <v>0.1236431220494194</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01473214611240161</v>
+        <v>0.06722965892771064</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1002196412798273</v>
+        <v>0.1231971917541184</v>
       </c>
       <c r="E156" t="n">
-        <v>0.08826538248063653</v>
+        <v>0.1267614869850001</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1027708563596904</v>
+        <v>0.1242656045474565</v>
       </c>
       <c r="G156" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H156" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I156" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J156" t="n">
         <v>19</v>
@@ -5762,28 +5762,28 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.03067369177920435</v>
+        <v>0.1000871460157165</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001823442786995154</v>
+        <v>0.007800593987130441</v>
       </c>
       <c r="D157" t="n">
-        <v>0.06028759274332835</v>
+        <v>0.1232004541449061</v>
       </c>
       <c r="E157" t="n">
-        <v>0.05969790358434744</v>
+        <v>0.1157563786879246</v>
       </c>
       <c r="F157" t="n">
-        <v>0.05379200173688164</v>
+        <v>0.119934517732314</v>
       </c>
       <c r="G157" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H157" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I157" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J157" t="n">
         <v>19</v>
@@ -5796,28 +5796,28 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.1236473110609309</v>
+        <v>0.1335793434603722</v>
       </c>
       <c r="C158" t="n">
-        <v>0.016304603830301</v>
+        <v>0.04754167461840118</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1370518332995148</v>
+        <v>0.1650033972821809</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1796365225331894</v>
+        <v>0.1562383629110609</v>
       </c>
       <c r="F158" t="n">
-        <v>0.05658314154609446</v>
+        <v>0.1347892993249157</v>
       </c>
       <c r="G158" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H158" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I158" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J158" t="n">
         <v>19</v>
@@ -5830,28 +5830,28 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.03652822167205464</v>
+        <v>0.1172847586176221</v>
       </c>
       <c r="C159" t="n">
-        <v>0.00722607484476105</v>
+        <v>0.04256430117539074</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04118529206210675</v>
+        <v>0.166179005215305</v>
       </c>
       <c r="E159" t="n">
-        <v>0.04231817587018549</v>
+        <v>0.1768676934192015</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03652822167205464</v>
+        <v>0.1172847586176221</v>
       </c>
       <c r="G159" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H159" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I159" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J159" t="n">
         <v>19</v>
@@ -5864,28 +5864,28 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0716545627733858</v>
+        <v>0.02897799928150926</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0211698325787261</v>
+        <v>0.02796132854942734</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06367577179756473</v>
+        <v>0.03382860078710891</v>
       </c>
       <c r="E160" t="n">
-        <v>0.065267464184674</v>
+        <v>0.03168061908587003</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0716545627733858</v>
+        <v>0.02897799928150926</v>
       </c>
       <c r="G160" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H160" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I160" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J160" t="n">
         <v>19</v>
@@ -5898,28 +5898,28 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.06786992451103578</v>
+        <v>0.1756274666904075</v>
       </c>
       <c r="C161" t="n">
-        <v>0.05629967227277419</v>
+        <v>0.05719186717965655</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1274705249665542</v>
+        <v>0.1778106473919471</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1218827488038007</v>
+        <v>0.1646749042572414</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1357866550855664</v>
+        <v>0.1709705073046355</v>
       </c>
       <c r="G161" t="n">
-        <v>0.6689077174065444</v>
+        <v>0.6642753038602545</v>
       </c>
       <c r="H161" t="n">
-        <v>0.7161677177549324</v>
+        <v>0.8723147471357663</v>
       </c>
       <c r="I161" t="n">
-        <v>0.5810459629790415</v>
+        <v>0.6260249413202489</v>
       </c>
       <c r="J161" t="n">
         <v>19</v>
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2657626575462998</v>
+        <v>0.6055523975959962</v>
       </c>
       <c r="C162" t="n">
-        <v>0.03126382012470983</v>
+        <v>0.329508328317585</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3188263986059637</v>
+        <v>0.5650058313934596</v>
       </c>
       <c r="E162" t="n">
-        <v>0.346663913462811</v>
+        <v>0.5751288579321887</v>
       </c>
       <c r="F162" t="n">
-        <v>0.2402549541923282</v>
+        <v>0.4908721097624418</v>
       </c>
       <c r="G162" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H162" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J162" t="n">
         <v>20</v>
@@ -5966,28 +5966,28 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.2684397832655258</v>
+        <v>0.7407648142230856</v>
       </c>
       <c r="C163" t="n">
-        <v>0.004395387038345917</v>
+        <v>0.675636768602395</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2909134797390511</v>
+        <v>0.7469933804000863</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2606181355036613</v>
+        <v>0.7351544011043165</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2675204896742703</v>
+        <v>0.3856981718352063</v>
       </c>
       <c r="G163" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H163" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I163" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J163" t="n">
         <v>20</v>
@@ -6000,28 +6000,28 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.07030309569046198</v>
+        <v>0.3263267129459266</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0142407338243669</v>
+        <v>0.2310137643270976</v>
       </c>
       <c r="D164" t="n">
-        <v>0.09279144105974732</v>
+        <v>0.3321162154899018</v>
       </c>
       <c r="E164" t="n">
-        <v>0.06984307735290868</v>
+        <v>0.3311891398510806</v>
       </c>
       <c r="F164" t="n">
-        <v>0.05260142845903943</v>
+        <v>0.3263267129459266</v>
       </c>
       <c r="G164" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H164" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I164" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J164" t="n">
         <v>20</v>
@@ -6034,28 +6034,28 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.02256871414087933</v>
+        <v>0.2524755543763824</v>
       </c>
       <c r="C165" t="n">
-        <v>0.004054948308600915</v>
+        <v>0.3044443073910644</v>
       </c>
       <c r="D165" t="n">
-        <v>0.03033851939978927</v>
+        <v>0.2619756389964377</v>
       </c>
       <c r="E165" t="n">
-        <v>0.02508027020160121</v>
+        <v>0.2589557131024794</v>
       </c>
       <c r="F165" t="n">
-        <v>0.01460185178721002</v>
+        <v>0.241429396302501</v>
       </c>
       <c r="G165" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H165" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I165" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J165" t="n">
         <v>20</v>
@@ -6068,28 +6068,28 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.06779318586153046</v>
+        <v>0.2659139356797277</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00918934328058002</v>
+        <v>0.2386257051437724</v>
       </c>
       <c r="D166" t="n">
-        <v>0.07053094607165314</v>
+        <v>0.2664050611192396</v>
       </c>
       <c r="E166" t="n">
-        <v>0.07680364702629372</v>
+        <v>0.2626993063537898</v>
       </c>
       <c r="F166" t="n">
-        <v>0.06582039382667952</v>
+        <v>0.2605346313359643</v>
       </c>
       <c r="G166" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H166" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I166" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J166" t="n">
         <v>20</v>
@@ -6102,28 +6102,28 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.07570586789635358</v>
+        <v>0.2698397655908815</v>
       </c>
       <c r="C167" t="n">
-        <v>0.006238542010593702</v>
+        <v>0.2956549230100631</v>
       </c>
       <c r="D167" t="n">
-        <v>0.05427151761300125</v>
+        <v>0.2515444733464203</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0452766278977587</v>
+        <v>0.2572818729247581</v>
       </c>
       <c r="F167" t="n">
-        <v>0.07570586789635358</v>
+        <v>0.2698397655908815</v>
       </c>
       <c r="G167" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H167" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I167" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J167" t="n">
         <v>20</v>
@@ -6136,28 +6136,28 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.05334002214900765</v>
+        <v>0.09107029658935059</v>
       </c>
       <c r="C168" t="n">
-        <v>0.03912872544904655</v>
+        <v>0.1162822570050844</v>
       </c>
       <c r="D168" t="n">
-        <v>0.05536496382311218</v>
+        <v>0.08827891677789437</v>
       </c>
       <c r="E168" t="n">
-        <v>0.05536496382311218</v>
+        <v>0.08827891677789437</v>
       </c>
       <c r="F168" t="n">
-        <v>0.05334002214900765</v>
+        <v>0.09107029658935059</v>
       </c>
       <c r="G168" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H168" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I168" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J168" t="n">
         <v>20</v>
@@ -6170,28 +6170,28 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.06743837144832683</v>
+        <v>0.2145159872764528</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0134825938357324</v>
+        <v>0.1451602207508021</v>
       </c>
       <c r="D169" t="n">
-        <v>0.08307112229218863</v>
+        <v>0.2107434746887106</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0714143877093531</v>
+        <v>0.2113913620780822</v>
       </c>
       <c r="F169" t="n">
-        <v>0.03335620188073289</v>
+        <v>0.1748189750833339</v>
       </c>
       <c r="G169" t="n">
-        <v>0.03559352147644978</v>
+        <v>0.9051152759505652</v>
       </c>
       <c r="H169" t="n">
-        <v>0.4838042663320301</v>
+        <v>0.7671857577949748</v>
       </c>
       <c r="I169" t="n">
-        <v>0.4075357310931942</v>
+        <v>0.8297121325873601</v>
       </c>
       <c r="J169" t="n">
         <v>20</v>
@@ -6204,28 +6204,28 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.7384675066237545</v>
+        <v>0.396435036860414</v>
       </c>
       <c r="C170" t="n">
-        <v>0.8173365164355815</v>
+        <v>0.1038139414869583</v>
       </c>
       <c r="D170" t="n">
-        <v>0.590923134463923</v>
+        <v>0.4478927072155798</v>
       </c>
       <c r="E170" t="n">
-        <v>0.6441549628575157</v>
+        <v>0.4427901001382668</v>
       </c>
       <c r="F170" t="n">
-        <v>0.2922370101528282</v>
+        <v>0.3198475596973786</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H170" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J170" t="n">
         <v>21</v>
@@ -6238,28 +6238,28 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9477273388905638</v>
+        <v>0.3771883013055587</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9336271162846252</v>
+        <v>0.2178661953126958</v>
       </c>
       <c r="D171" t="n">
-        <v>0.8759821304258892</v>
+        <v>0.4305118037007989</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8780633926745652</v>
+        <v>0.4022439339976234</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4526951613392905</v>
+        <v>0.0613326083558907</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H171" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J171" t="n">
         <v>21</v>
@@ -6272,28 +6272,28 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.2020790833068896</v>
+        <v>0.1326944973532998</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3726725564095578</v>
+        <v>0.0430920053493306</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1772729822949902</v>
+        <v>0.152965878966384</v>
       </c>
       <c r="E172" t="n">
-        <v>0.159402641662878</v>
+        <v>0.1395933028900855</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2020790833068896</v>
+        <v>0.1326944973532998</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H172" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I172" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J172" t="n">
         <v>21</v>
@@ -6306,28 +6306,28 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.4208944652916552</v>
+        <v>0.1068637266931381</v>
       </c>
       <c r="C173" t="n">
-        <v>0.386350493983158</v>
+        <v>0.05912094232163882</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4208944652916552</v>
+        <v>0.1043418206284874</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4208944652916552</v>
+        <v>0.09359197901794528</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4208944652916552</v>
+        <v>0.104770510206621</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H173" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I173" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J173" t="n">
         <v>21</v>
@@ -6340,28 +6340,28 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.2275119754158483</v>
+        <v>0.1750707578321803</v>
       </c>
       <c r="C174" t="n">
-        <v>0.418793112616003</v>
+        <v>0.1165413426276711</v>
       </c>
       <c r="D174" t="n">
-        <v>0.2635231733895939</v>
+        <v>0.1589026050638798</v>
       </c>
       <c r="E174" t="n">
-        <v>0.2635231733895939</v>
+        <v>0.1705034457573978</v>
       </c>
       <c r="F174" t="n">
-        <v>0.2294801049106704</v>
+        <v>0.1777694266519224</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H174" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J174" t="n">
         <v>21</v>
@@ -6374,28 +6374,28 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.2792901146037214</v>
+        <v>0.1584660623877167</v>
       </c>
       <c r="C175" t="n">
-        <v>0.4168131038223236</v>
+        <v>0.07568144485968084</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1844219735506599</v>
+        <v>0.1762195060705893</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1742832008718239</v>
+        <v>0.1501138986881371</v>
       </c>
       <c r="F175" t="n">
-        <v>0.2792901146037214</v>
+        <v>0.1584660623877167</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J175" t="n">
         <v>21</v>
@@ -6408,28 +6408,28 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.09003494369220055</v>
+        <v>0.03910258700772927</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1927464347945224</v>
+        <v>0.08141567538224764</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06460296254086773</v>
+        <v>0.04560615364001638</v>
       </c>
       <c r="E176" t="n">
-        <v>0.05177331660101719</v>
+        <v>0.03943739522375016</v>
       </c>
       <c r="F176" t="n">
-        <v>0.09003494369220055</v>
+        <v>0.03910258700772927</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H176" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J176" t="n">
         <v>21</v>
@@ -6442,28 +6442,28 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.3111047958923269</v>
+        <v>0.188442796401077</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3513677924371202</v>
+        <v>0.06088602314342895</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3631665404931171</v>
+        <v>0.1721339570779455</v>
       </c>
       <c r="E177" t="n">
-        <v>0.3568192588837236</v>
+        <v>0.1626330596347042</v>
       </c>
       <c r="F177" t="n">
-        <v>0.342608337822611</v>
+        <v>0.1653708354519057</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0.7823392077239278</v>
       </c>
       <c r="H177" t="n">
-        <v>0.8808086462524285</v>
+        <v>0.7056946230400263</v>
       </c>
       <c r="I177" t="n">
-        <v>0.9531010265652742</v>
+        <v>0.7249768695355235</v>
       </c>
       <c r="J177" t="n">
         <v>21</v>
@@ -6476,28 +6476,28 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.6577922703063519</v>
+        <v>0.4223124091074439</v>
       </c>
       <c r="C178" t="n">
-        <v>0.07851321870979809</v>
+        <v>0.07414164523071767</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5899582922772089</v>
+        <v>0.3772924833712238</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6591556501106929</v>
+        <v>0.4131731902019047</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3261646065492881</v>
+        <v>0.2443402192509178</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I178" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J178" t="n">
         <v>22</v>
@@ -6510,28 +6510,28 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.7770042177709107</v>
+        <v>0.4757412015026533</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6371623275279225</v>
+        <v>0.2680661560051389</v>
       </c>
       <c r="D179" t="n">
-        <v>0.73795352217639</v>
+        <v>0.5318613563910413</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7532754658898058</v>
+        <v>0.4541275472319485</v>
       </c>
       <c r="F179" t="n">
-        <v>0.4856259046340631</v>
+        <v>0.08013438906370417</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I179" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J179" t="n">
         <v>22</v>
@@ -6544,28 +6544,28 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.3026105675688805</v>
+        <v>0.1681855030250097</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2716920166894145</v>
+        <v>0.08499283708960753</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3048101924937259</v>
+        <v>0.1915251250338431</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3306018422854292</v>
+        <v>0.1739226756982832</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3007609018468147</v>
+        <v>0.1681855030250097</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J180" t="n">
         <v>22</v>
@@ -6578,28 +6578,28 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.2441763804779314</v>
+        <v>0.1136227644265888</v>
       </c>
       <c r="C181" t="n">
-        <v>0.336571034654422</v>
+        <v>0.03451224295000431</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2441763804779314</v>
+        <v>0.09755061700692445</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2441763804779314</v>
+        <v>0.09653349752277549</v>
       </c>
       <c r="F181" t="n">
-        <v>0.2441763804779314</v>
+        <v>0.1143690585511071</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I181" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J181" t="n">
         <v>22</v>
@@ -6612,28 +6612,28 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.2212322663415368</v>
+        <v>0.1388954004877167</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3004895542845936</v>
+        <v>0.06977895302800499</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2055802006043393</v>
+        <v>0.1772317544621556</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2076838448295644</v>
+        <v>0.1777618288312495</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1622575709272445</v>
+        <v>0.165159894684706</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H182" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I182" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J182" t="n">
         <v>22</v>
@@ -6646,28 +6646,28 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.3297293011079961</v>
+        <v>0.1915273705591082</v>
       </c>
       <c r="C183" t="n">
-        <v>0.313423593585296</v>
+        <v>0.1222434638797012</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3009849956850333</v>
+        <v>0.1863252189817871</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3032342283686617</v>
+        <v>0.1810399254555046</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3297293011079961</v>
+        <v>0.1915273705591082</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H183" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I183" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J183" t="n">
         <v>22</v>
@@ -6680,28 +6680,28 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.1532035013361356</v>
+        <v>0.09021711983386732</v>
       </c>
       <c r="C184" t="n">
-        <v>0.117320815552679</v>
+        <v>0.08262511042865586</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1260255645815819</v>
+        <v>0.07370534325955798</v>
       </c>
       <c r="E184" t="n">
-        <v>0.128063415535965</v>
+        <v>0.07262613483880817</v>
       </c>
       <c r="F184" t="n">
-        <v>0.1532035013361356</v>
+        <v>0.09021711983386732</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H184" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I184" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J184" t="n">
         <v>22</v>
@@ -6714,28 +6714,28 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.1602606573515308</v>
+        <v>0.1007387294453329</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1298385890670685</v>
+        <v>0.06165069868549404</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1399767538046714</v>
+        <v>0.1112004622033681</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1859324696237195</v>
+        <v>0.1109931663827479</v>
       </c>
       <c r="F185" t="n">
-        <v>0.1476128624091427</v>
+        <v>0.1064878493899686</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0.5848596486129849</v>
       </c>
       <c r="H185" t="n">
-        <v>0.6784099200919059</v>
+        <v>0.7510661690595847</v>
       </c>
       <c r="I185" t="n">
-        <v>0.8468311284149422</v>
+        <v>0.7308819721531938</v>
       </c>
       <c r="J185" t="n">
         <v>22</v>
@@ -6748,28 +6748,28 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.3688739001825107</v>
+        <v>0.4404947549694251</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1231778117157138</v>
+        <v>0.06194599367368052</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3361458313878748</v>
+        <v>0.4157075768206082</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3639282004521129</v>
+        <v>0.4184271807444835</v>
       </c>
       <c r="F186" t="n">
-        <v>0.40390905449412</v>
+        <v>0.4045295177480551</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H186" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I186" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J186" t="n">
         <v>23</v>
@@ -6782,28 +6782,28 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.6356551998659246</v>
+        <v>0.3872393309404527</v>
       </c>
       <c r="C187" t="n">
-        <v>0.1470010800319354</v>
+        <v>0.08079621589297152</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4783951643401227</v>
+        <v>0.3851705139663281</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5421697304767463</v>
+        <v>0.3925645287836365</v>
       </c>
       <c r="F187" t="n">
-        <v>0.3564250235887382</v>
+        <v>0.3442351344853979</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H187" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I187" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J187" t="n">
         <v>23</v>
@@ -6816,28 +6816,28 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.07683615113210468</v>
+        <v>0.107164974490651</v>
       </c>
       <c r="C188" t="n">
-        <v>0.04081236883102136</v>
+        <v>0.01943361350842297</v>
       </c>
       <c r="D188" t="n">
-        <v>0.03540217196335944</v>
+        <v>0.09682239320442756</v>
       </c>
       <c r="E188" t="n">
-        <v>0.05908644635749248</v>
+        <v>0.07940048379946915</v>
       </c>
       <c r="F188" t="n">
-        <v>0.07683615113210468</v>
+        <v>0.1043018275996986</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H188" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I188" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J188" t="n">
         <v>23</v>
@@ -6850,28 +6850,28 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.07484889036621312</v>
+        <v>0.01750169783587401</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1095141705480026</v>
+        <v>0.001214793391868758</v>
       </c>
       <c r="D189" t="n">
-        <v>0.08403093277179489</v>
+        <v>0.03435859559014388</v>
       </c>
       <c r="E189" t="n">
-        <v>0.05941158118828214</v>
+        <v>0.03413397756858987</v>
       </c>
       <c r="F189" t="n">
-        <v>0.07598583010326834</v>
+        <v>0.0506584903659699</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H189" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I189" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J189" t="n">
         <v>23</v>
@@ -6884,28 +6884,28 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1014602147798816</v>
+        <v>0.104667410520461</v>
       </c>
       <c r="C190" t="n">
-        <v>0.05469712665516346</v>
+        <v>0.0118156076962233</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1101627531472369</v>
+        <v>0.1240050583757569</v>
       </c>
       <c r="E190" t="n">
-        <v>0.1048229198792004</v>
+        <v>0.1378336767157542</v>
       </c>
       <c r="F190" t="n">
-        <v>0.1184531663334067</v>
+        <v>0.1151080710922248</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H190" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I190" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J190" t="n">
         <v>23</v>
@@ -6918,28 +6918,28 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.1240669175488385</v>
+        <v>0.08301346232845219</v>
       </c>
       <c r="C191" t="n">
-        <v>0.07201763054777542</v>
+        <v>0.0164929698838533</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1124185140481887</v>
+        <v>0.1239707789020608</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0902225011086609</v>
+        <v>0.09956779705541094</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1240669175488385</v>
+        <v>0.08301346232845219</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H191" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I191" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J191" t="n">
         <v>23</v>
@@ -6952,28 +6952,28 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.06098916712228604</v>
+        <v>0.02735303457689522</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1068676705525421</v>
+        <v>0.04286221329348271</v>
       </c>
       <c r="D192" t="n">
-        <v>0.06283346184091304</v>
+        <v>0.01117535948963412</v>
       </c>
       <c r="E192" t="n">
-        <v>0.06073045465431227</v>
+        <v>0.008546285649372917</v>
       </c>
       <c r="F192" t="n">
-        <v>0.06098916712228604</v>
+        <v>0.02735303457689522</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H192" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I192" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J192" t="n">
         <v>23</v>
@@ -6986,28 +6986,28 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.1465346892256845</v>
+        <v>0.1096149136167009</v>
       </c>
       <c r="C193" t="n">
-        <v>0.05795528126393816</v>
+        <v>0.04650554715244471</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1351060829489209</v>
+        <v>0.1198134200852328</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1348802959045962</v>
+        <v>0.1052323198857012</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1685595134981387</v>
+        <v>0.09981647491851146</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0.4954115944083503</v>
       </c>
       <c r="H193" t="n">
-        <v>0.8127007101482091</v>
+        <v>0.8000239868673009</v>
       </c>
       <c r="I193" t="n">
-        <v>0.684248489572749</v>
+        <v>0.5525950916871499</v>
       </c>
       <c r="J193" t="n">
         <v>23</v>
@@ -7020,28 +7020,28 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.8328308913678797</v>
+        <v>0.2999424804709962</v>
       </c>
       <c r="C194" t="n">
-        <v>0.58934496078205</v>
+        <v>0.03352248190328522</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7551976790570263</v>
+        <v>0.3028493608808726</v>
       </c>
       <c r="E194" t="n">
-        <v>0.7815212064445617</v>
+        <v>0.2800991045977677</v>
       </c>
       <c r="F194" t="n">
-        <v>0.3690953118450286</v>
+        <v>0.3676957471414648</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H194" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J194" t="n">
         <v>24</v>
@@ -7054,28 +7054,28 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.6836054370849463</v>
+        <v>0.4720721201928205</v>
       </c>
       <c r="C195" t="n">
-        <v>0.8564295988775432</v>
+        <v>0.07308847186305936</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6836054370849463</v>
+        <v>0.4320374035491815</v>
       </c>
       <c r="E195" t="n">
-        <v>0.6739036543386646</v>
+        <v>0.4648072549838432</v>
       </c>
       <c r="F195" t="n">
-        <v>0.4153469476935384</v>
+        <v>0.3781046342433853</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H195" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J195" t="n">
         <v>24</v>
@@ -7088,28 +7088,28 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.1741295318341713</v>
+        <v>0.04686798883477809</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3978217654992223</v>
+        <v>0.02054868656206715</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1625976229216533</v>
+        <v>0.0869720611006146</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1561346801554651</v>
+        <v>0.06241973699995411</v>
       </c>
       <c r="F196" t="n">
-        <v>0.1741295318341713</v>
+        <v>0.05419538732118454</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H196" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I196" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J196" t="n">
         <v>24</v>
@@ -7122,28 +7122,28 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.2970342316025348</v>
+        <v>0.01010138269938107</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3092134688513077</v>
+        <v>-0.01301724186584713</v>
       </c>
       <c r="D197" t="n">
-        <v>0.322990554522698</v>
+        <v>0.01581798790254388</v>
       </c>
       <c r="E197" t="n">
-        <v>0.322990554522698</v>
+        <v>0.01400256631497129</v>
       </c>
       <c r="F197" t="n">
-        <v>0.322990554522698</v>
+        <v>0.004927472346166706</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H197" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I197" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J197" t="n">
         <v>24</v>
@@ -7156,28 +7156,28 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.1675652872466181</v>
+        <v>0.03687279138419882</v>
       </c>
       <c r="C198" t="n">
-        <v>0.401364852253815</v>
+        <v>0.001934845117502133</v>
       </c>
       <c r="D198" t="n">
-        <v>0.136702498002654</v>
+        <v>0.05083905995813032</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1062064896858529</v>
+        <v>0.04761157522305221</v>
       </c>
       <c r="F198" t="n">
-        <v>0.1675652872466181</v>
+        <v>0.07510496063183859</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H198" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J198" t="n">
         <v>24</v>
@@ -7190,28 +7190,28 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.3097264161615393</v>
+        <v>0.05706380808669269</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3986180505378868</v>
+        <v>0.01015626721988648</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3120931334002453</v>
+        <v>0.04865286849954061</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3099796966527426</v>
+        <v>0.06365008171904529</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3097264161615393</v>
+        <v>0.05706380808669269</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H199" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J199" t="n">
         <v>24</v>
@@ -7224,28 +7224,28 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.107976688016779</v>
+        <v>0.02860537676459253</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2392713945262042</v>
+        <v>0.02963905509242682</v>
       </c>
       <c r="D200" t="n">
-        <v>0.107976688016779</v>
+        <v>0.01542648701015508</v>
       </c>
       <c r="E200" t="n">
-        <v>0.107976688016779</v>
+        <v>0.02184265706533169</v>
       </c>
       <c r="F200" t="n">
-        <v>0.107976688016779</v>
+        <v>0.02860537676459253</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H200" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J200" t="n">
         <v>24</v>
@@ -7258,28 +7258,28 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.2456238555788898</v>
+        <v>0.06535987662048201</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1999423254654943</v>
+        <v>0.01391601588793587</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2391493632883717</v>
+        <v>0.0633537610963483</v>
       </c>
       <c r="E201" t="n">
-        <v>0.277593638959994</v>
+        <v>0.06290504716649545</v>
       </c>
       <c r="F201" t="n">
-        <v>0.2711329895105735</v>
+        <v>0.06734621604840453</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0.1166566529815855</v>
       </c>
       <c r="H201" t="n">
-        <v>0.8428245884647407</v>
+        <v>0.8500093078394133</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9265430552479754</v>
+        <v>0.4875333617854055</v>
       </c>
       <c r="J201" t="n">
         <v>24</v>
@@ -7292,28 +7292,28 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.5753539120785884</v>
+        <v>0.2196284509395273</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4013815487743663</v>
+        <v>0.04156203674473331</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6049173679211176</v>
+        <v>0.2262940713736487</v>
       </c>
       <c r="E202" t="n">
-        <v>0.6223985805858174</v>
+        <v>0.219466949544651</v>
       </c>
       <c r="F202" t="n">
-        <v>0.2816627502129635</v>
+        <v>0.2111910594802598</v>
       </c>
       <c r="G202" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H202" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I202" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J202" t="n">
         <v>25</v>
@@ -7326,28 +7326,28 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.5992283553023454</v>
+        <v>0.2023674635640424</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4652633048224897</v>
+        <v>0.01133294938401514</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6233928778974606</v>
+        <v>0.2446736574083594</v>
       </c>
       <c r="E203" t="n">
-        <v>0.6748737140741849</v>
+        <v>0.2451989032195663</v>
       </c>
       <c r="F203" t="n">
-        <v>0.3325023863262931</v>
+        <v>0.1843593902383479</v>
       </c>
       <c r="G203" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H203" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I203" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J203" t="n">
         <v>25</v>
@@ -7360,28 +7360,28 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.1208186814960744</v>
+        <v>0.06115277187773834</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2099357461659976</v>
+        <v>-0.002027838374913867</v>
       </c>
       <c r="D204" t="n">
-        <v>0.09314606562552843</v>
+        <v>0.06922195342888351</v>
       </c>
       <c r="E204" t="n">
-        <v>0.1162082452134264</v>
+        <v>0.05508731395766385</v>
       </c>
       <c r="F204" t="n">
-        <v>0.1208186814960744</v>
+        <v>0.05261971287658736</v>
       </c>
       <c r="G204" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H204" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I204" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J204" t="n">
         <v>25</v>
@@ -7394,28 +7394,28 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.2621849474730229</v>
+        <v>0.03421079071962206</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2268945763967597</v>
+        <v>0.01083532732786229</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2877563221166228</v>
+        <v>0.0438223985279592</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2733618675021856</v>
+        <v>0.0390747275882798</v>
       </c>
       <c r="F205" t="n">
-        <v>0.248394291353953</v>
+        <v>0.02606136773062583</v>
       </c>
       <c r="G205" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H205" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I205" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J205" t="n">
         <v>25</v>
@@ -7428,28 +7428,28 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.2988769929437037</v>
+        <v>0.04330477526495286</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2939975014142255</v>
+        <v>0.01515118577609618</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2732204703444425</v>
+        <v>0.04396421075611173</v>
       </c>
       <c r="E206" t="n">
-        <v>0.2886030082355329</v>
+        <v>0.04366857584233048</v>
       </c>
       <c r="F206" t="n">
-        <v>0.3177394755345508</v>
+        <v>0.0606686490973352</v>
       </c>
       <c r="G206" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H206" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I206" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J206" t="n">
         <v>25</v>
@@ -7462,28 +7462,28 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.1521686853710698</v>
+        <v>0.05587802609328737</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2524730284186519</v>
+        <v>0.004508553753202591</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1901518275523638</v>
+        <v>0.04305679404693328</v>
       </c>
       <c r="E207" t="n">
-        <v>0.1929889647841148</v>
+        <v>0.04032151168102945</v>
       </c>
       <c r="F207" t="n">
-        <v>0.1521686853710698</v>
+        <v>0.05587802609328737</v>
       </c>
       <c r="G207" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H207" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I207" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J207" t="n">
         <v>25</v>
@@ -7496,28 +7496,28 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.04365571519339143</v>
+        <v>0.01331806501650815</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1290565316140032</v>
+        <v>0.02188302785764259</v>
       </c>
       <c r="D208" t="n">
-        <v>0.04335416682278798</v>
+        <v>0.01300015002762917</v>
       </c>
       <c r="E208" t="n">
-        <v>0.04335416682278798</v>
+        <v>0.01300015002762917</v>
       </c>
       <c r="F208" t="n">
-        <v>0.04365571519339143</v>
+        <v>0.01331806501650815</v>
       </c>
       <c r="G208" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H208" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I208" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J208" t="n">
         <v>25</v>
@@ -7530,28 +7530,28 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.1057207956551551</v>
+        <v>0.0571280166006046</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1061005948824719</v>
+        <v>0.02369552497574328</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1986192585234143</v>
+        <v>0.06480963450345918</v>
       </c>
       <c r="E209" t="n">
-        <v>0.091448517019122</v>
+        <v>0.06580284152852861</v>
       </c>
       <c r="F209" t="n">
-        <v>0.130120475984495</v>
+        <v>0.05935622021697844</v>
       </c>
       <c r="G209" t="n">
-        <v>0.8755363881401617</v>
+        <v>0.009185832681003274</v>
       </c>
       <c r="H209" t="n">
-        <v>0.7311369784940203</v>
+        <v>0.5953208110498509</v>
       </c>
       <c r="I209" t="n">
-        <v>0.823596264657886</v>
+        <v>0.3650904106094721</v>
       </c>
       <c r="J209" t="n">
         <v>25</v>
@@ -7564,28 +7564,28 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.4343273992573122</v>
+        <v>0.6144555824344609</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1006029697227931</v>
+        <v>0.3556543610688329</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3710196660889551</v>
+        <v>0.5354456245614433</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3752341988394945</v>
+        <v>0.5453906370699453</v>
       </c>
       <c r="F210" t="n">
-        <v>0.266150311797382</v>
+        <v>0.3332283508910961</v>
       </c>
       <c r="G210" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H210" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I210" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J210" t="n">
         <v>26</v>
@@ -7598,28 +7598,28 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.5622205486881329</v>
+        <v>0.54234584632379</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2079645880531345</v>
+        <v>0.6974573770411185</v>
       </c>
       <c r="D211" t="n">
-        <v>0.640818355922792</v>
+        <v>0.4703196281983626</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6496524124743128</v>
+        <v>0.464994361051832</v>
       </c>
       <c r="F211" t="n">
-        <v>0.1976465828778635</v>
+        <v>0.2720475876152615</v>
       </c>
       <c r="G211" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H211" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J211" t="n">
         <v>26</v>
@@ -7632,28 +7632,28 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.1118458889523067</v>
+        <v>0.243612128334651</v>
       </c>
       <c r="C212" t="n">
-        <v>0.07785960218209023</v>
+        <v>0.190753564227858</v>
       </c>
       <c r="D212" t="n">
-        <v>0.1142574521189172</v>
+        <v>0.2691794354933851</v>
       </c>
       <c r="E212" t="n">
-        <v>0.1261721827521787</v>
+        <v>0.2688661049474018</v>
       </c>
       <c r="F212" t="n">
-        <v>0.1113478784112217</v>
+        <v>0.243612128334651</v>
       </c>
       <c r="G212" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H212" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I212" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J212" t="n">
         <v>26</v>
@@ -7666,28 +7666,28 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.05882523897989259</v>
+        <v>0.2600125122996194</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.002435447287532773</v>
+        <v>0.3442866490929825</v>
       </c>
       <c r="D213" t="n">
-        <v>0.06827058612739861</v>
+        <v>0.2811487913546921</v>
       </c>
       <c r="E213" t="n">
-        <v>0.04984024850699911</v>
+        <v>0.278223693046346</v>
       </c>
       <c r="F213" t="n">
-        <v>0.02720188898597801</v>
+        <v>0.2400688100979401</v>
       </c>
       <c r="G213" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H213" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I213" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J213" t="n">
         <v>26</v>
@@ -7700,28 +7700,28 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.09484678735388202</v>
+        <v>0.2539350444986544</v>
       </c>
       <c r="C214" t="n">
-        <v>0.03772986429796915</v>
+        <v>0.3052438775229888</v>
       </c>
       <c r="D214" t="n">
-        <v>0.08392513933744741</v>
+        <v>0.2231162441827628</v>
       </c>
       <c r="E214" t="n">
-        <v>0.1007440169240907</v>
+        <v>0.2166839278504589</v>
       </c>
       <c r="F214" t="n">
-        <v>0.06383570085727046</v>
+        <v>0.2424280777109213</v>
       </c>
       <c r="G214" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I214" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J214" t="n">
         <v>26</v>
@@ -7734,28 +7734,28 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.1117479796249728</v>
+        <v>0.3075980175910079</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0654733945181077</v>
+        <v>0.3093420647080394</v>
       </c>
       <c r="D215" t="n">
-        <v>0.139265521355513</v>
+        <v>0.3181931804284346</v>
       </c>
       <c r="E215" t="n">
-        <v>0.1357332500992247</v>
+        <v>0.3124361403469824</v>
       </c>
       <c r="F215" t="n">
-        <v>0.1117479796249728</v>
+        <v>0.3075980175910079</v>
       </c>
       <c r="G215" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H215" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I215" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J215" t="n">
         <v>26</v>
@@ -7768,28 +7768,28 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.02367103051273726</v>
+        <v>0.1107891496167592</v>
       </c>
       <c r="C216" t="n">
-        <v>0.08255053718828698</v>
+        <v>0.1385700541755392</v>
       </c>
       <c r="D216" t="n">
-        <v>0.05659923851776522</v>
+        <v>0.1117298043842003</v>
       </c>
       <c r="E216" t="n">
-        <v>0.05804682460385822</v>
+        <v>0.1117298043842003</v>
       </c>
       <c r="F216" t="n">
-        <v>0.02367103051273726</v>
+        <v>0.1107891496167592</v>
       </c>
       <c r="G216" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H216" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I216" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J216" t="n">
         <v>26</v>
@@ -7802,28 +7802,28 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.07243983739984627</v>
+        <v>0.1886746977826247</v>
       </c>
       <c r="C217" t="n">
-        <v>0.09250959435243553</v>
+        <v>0.1495612472872365</v>
       </c>
       <c r="D217" t="n">
-        <v>0.096272944302947</v>
+        <v>0.2167930285367044</v>
       </c>
       <c r="E217" t="n">
-        <v>0.09116285149913131</v>
+        <v>0.1993354469921337</v>
       </c>
       <c r="F217" t="n">
-        <v>0.09219880214848611</v>
+        <v>0.1673538984044323</v>
       </c>
       <c r="G217" t="n">
-        <v>0.8735660439315147</v>
+        <v>0.8562703730393499</v>
       </c>
       <c r="H217" t="n">
-        <v>0.7721768440621539</v>
+        <v>0.7720097334571856</v>
       </c>
       <c r="I217" t="n">
-        <v>0.6106303850962264</v>
+        <v>0.8709001602883756</v>
       </c>
       <c r="J217" t="n">
         <v>26</v>
@@ -7836,28 +7836,28 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.2879121291054053</v>
+        <v>0.5687824676049464</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0131189364347795</v>
+        <v>0.1008467344679811</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4180347181529542</v>
+        <v>0.5288874607397261</v>
       </c>
       <c r="E218" t="n">
-        <v>0.4139694164663202</v>
+        <v>0.5284684189589203</v>
       </c>
       <c r="F218" t="n">
-        <v>0.3752181330821744</v>
+        <v>0.3876535634548581</v>
       </c>
       <c r="G218" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H218" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I218" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J218" t="n">
         <v>27</v>
@@ -7870,28 +7870,28 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.3111846088746582</v>
+        <v>0.6285994590078487</v>
       </c>
       <c r="C219" t="n">
-        <v>-9.15191403025417e-05</v>
+        <v>0.2813394576898895</v>
       </c>
       <c r="D219" t="n">
-        <v>0.341266193211043</v>
+        <v>0.6273429051357929</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3778783365889202</v>
+        <v>0.6479470924291159</v>
       </c>
       <c r="F219" t="n">
-        <v>0.3334102202191179</v>
+        <v>0.2362472330724802</v>
       </c>
       <c r="G219" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H219" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I219" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J219" t="n">
         <v>27</v>
@@ -7904,28 +7904,28 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.06821677776145606</v>
+        <v>0.1337842885365648</v>
       </c>
       <c r="C220" t="n">
-        <v>0.02948163272846812</v>
+        <v>0.1741193278003715</v>
       </c>
       <c r="D220" t="n">
-        <v>0.06894683943790884</v>
+        <v>0.1456797443762581</v>
       </c>
       <c r="E220" t="n">
-        <v>0.05870159794542897</v>
+        <v>0.1532438459692801</v>
       </c>
       <c r="F220" t="n">
-        <v>0.06656693630891534</v>
+        <v>0.1337842885365648</v>
       </c>
       <c r="G220" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H220" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I220" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J220" t="n">
         <v>27</v>
@@ -7938,28 +7938,28 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.01732496277276014</v>
+        <v>0.2149023684212905</v>
       </c>
       <c r="C221" t="n">
-        <v>0.006228681700258389</v>
+        <v>0.1658968073381056</v>
       </c>
       <c r="D221" t="n">
-        <v>0.02635269270238823</v>
+        <v>0.2195218641870187</v>
       </c>
       <c r="E221" t="n">
-        <v>0.009901578389433079</v>
+        <v>0.2173406001555349</v>
       </c>
       <c r="F221" t="n">
-        <v>0.031806536337307</v>
+        <v>0.2287386394761966</v>
       </c>
       <c r="G221" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H221" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I221" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J221" t="n">
         <v>27</v>
@@ -7972,28 +7972,28 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.1547150945191743</v>
+        <v>0.1902123901023828</v>
       </c>
       <c r="C222" t="n">
-        <v>0.03473835664046226</v>
+        <v>0.2430863164736145</v>
       </c>
       <c r="D222" t="n">
-        <v>0.155593655095339</v>
+        <v>0.1754497635800321</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1492378696866636</v>
+        <v>0.1916495187083763</v>
       </c>
       <c r="F222" t="n">
-        <v>0.1115465245989608</v>
+        <v>0.1699183441822902</v>
       </c>
       <c r="G222" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H222" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I222" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J222" t="n">
         <v>27</v>
@@ -8006,28 +8006,28 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.1037009870075627</v>
+        <v>0.2099070257651874</v>
       </c>
       <c r="C223" t="n">
-        <v>0.001493148074049514</v>
+        <v>0.1441412503313933</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1247255293007188</v>
+        <v>0.1592525925967904</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1217969412819178</v>
+        <v>0.1528280973619151</v>
       </c>
       <c r="F223" t="n">
-        <v>0.1037009870075627</v>
+        <v>0.2099070257651874</v>
       </c>
       <c r="G223" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H223" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I223" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J223" t="n">
         <v>27</v>
@@ -8040,28 +8040,28 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.001479082908828393</v>
+        <v>0.02891829393835971</v>
       </c>
       <c r="C224" t="n">
-        <v>0.04242765405483336</v>
+        <v>0.05877832873518527</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.005222464735021366</v>
+        <v>0.03201611725974499</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.0075083173836985</v>
+        <v>0.03201611725974499</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.001479082908828393</v>
+        <v>0.02891829393835971</v>
       </c>
       <c r="G224" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H224" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I224" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J224" t="n">
         <v>27</v>
@@ -8074,28 +8074,28 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.1324141048894302</v>
+        <v>0.1670607314288112</v>
       </c>
       <c r="C225" t="n">
-        <v>0.06496512648966024</v>
+        <v>0.08056143261966152</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1331053668269717</v>
+        <v>0.1787139354398064</v>
       </c>
       <c r="E225" t="n">
-        <v>0.1057608831165809</v>
+        <v>0.1634308214537797</v>
       </c>
       <c r="F225" t="n">
-        <v>0.1171495274571652</v>
+        <v>0.1616821256002613</v>
       </c>
       <c r="G225" t="n">
-        <v>0.4194508517970988</v>
+        <v>0.8217492742985769</v>
       </c>
       <c r="H225" t="n">
-        <v>0.5924727767450871</v>
+        <v>0.6830659080731036</v>
       </c>
       <c r="I225" t="n">
-        <v>0.5291739273155898</v>
+        <v>0.7691772237248719</v>
       </c>
       <c r="J225" t="n">
         <v>27</v>
@@ -8108,28 +8108,28 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.2627170916022799</v>
+        <v>0.2745398569608722</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1032222673656921</v>
+        <v>0.02748488494626038</v>
       </c>
       <c r="D226" t="n">
-        <v>0.326330445302783</v>
+        <v>0.2722209509452541</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3197054654565773</v>
+        <v>0.263948045270661</v>
       </c>
       <c r="F226" t="n">
-        <v>0.2376894671533238</v>
+        <v>0.3055057199150982</v>
       </c>
       <c r="G226" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H226" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I226" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J226" t="n">
         <v>28</v>
@@ -8142,28 +8142,28 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.3041650536615781</v>
+        <v>0.3051679667158953</v>
       </c>
       <c r="C227" t="n">
-        <v>0.05047717247907127</v>
+        <v>0.01277071852987593</v>
       </c>
       <c r="D227" t="n">
-        <v>0.3122291384531616</v>
+        <v>0.2768116922893962</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3252460575613575</v>
+        <v>0.2829923335508933</v>
       </c>
       <c r="F227" t="n">
-        <v>0.1431365175290003</v>
+        <v>0.139167885908549</v>
       </c>
       <c r="G227" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H227" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I227" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J227" t="n">
         <v>28</v>
@@ -8176,28 +8176,28 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.05465296811219804</v>
+        <v>0.06345445391419552</v>
       </c>
       <c r="C228" t="n">
-        <v>0.0183854005000766</v>
+        <v>0.02340914575296325</v>
       </c>
       <c r="D228" t="n">
-        <v>0.03736616585546347</v>
+        <v>0.07171966804142997</v>
       </c>
       <c r="E228" t="n">
-        <v>0.04235618596521516</v>
+        <v>0.06179265691892102</v>
       </c>
       <c r="F228" t="n">
-        <v>0.05413493986196723</v>
+        <v>0.0637845254772204</v>
       </c>
       <c r="G228" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H228" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I228" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J228" t="n">
         <v>28</v>
@@ -8210,28 +8210,28 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.06528041663772911</v>
+        <v>0.02475732096315815</v>
       </c>
       <c r="C229" t="n">
-        <v>0.009015973585445078</v>
+        <v>0.009017029603991422</v>
       </c>
       <c r="D229" t="n">
-        <v>0.07043363164975483</v>
+        <v>0.01448190047054008</v>
       </c>
       <c r="E229" t="n">
-        <v>0.06228834552338311</v>
+        <v>0.01477175020372581</v>
       </c>
       <c r="F229" t="n">
-        <v>0.06469273573423297</v>
+        <v>0.02554134621697883</v>
       </c>
       <c r="G229" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H229" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I229" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J229" t="n">
         <v>28</v>
@@ -8244,28 +8244,28 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.06241363721451207</v>
+        <v>0.07438693322875871</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.004706589526706211</v>
+        <v>0.01171610580697753</v>
       </c>
       <c r="D230" t="n">
-        <v>0.09223832063543122</v>
+        <v>0.06259541807718133</v>
       </c>
       <c r="E230" t="n">
-        <v>0.08764109859933764</v>
+        <v>0.0605640802505201</v>
       </c>
       <c r="F230" t="n">
-        <v>0.05030439725832581</v>
+        <v>0.05798912255079602</v>
       </c>
       <c r="G230" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H230" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I230" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J230" t="n">
         <v>28</v>
@@ -8278,28 +8278,28 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.04378447119278582</v>
+        <v>0.06373995533224062</v>
       </c>
       <c r="C231" t="n">
-        <v>0.006254886174816488</v>
+        <v>0.01009781303344551</v>
       </c>
       <c r="D231" t="n">
-        <v>0.09665004661270485</v>
+        <v>0.05481558062078369</v>
       </c>
       <c r="E231" t="n">
-        <v>0.0883153269197437</v>
+        <v>0.0577293715319502</v>
       </c>
       <c r="F231" t="n">
-        <v>0.04378447119278582</v>
+        <v>0.06373995533224062</v>
       </c>
       <c r="G231" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H231" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I231" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J231" t="n">
         <v>28</v>
@@ -8312,28 +8312,28 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.04736230095543255</v>
+        <v>0.04193113511598593</v>
       </c>
       <c r="C232" t="n">
-        <v>0.04106595126706834</v>
+        <v>0.04550795288697707</v>
       </c>
       <c r="D232" t="n">
-        <v>0.02709914709957927</v>
+        <v>0.04016024009095072</v>
       </c>
       <c r="E232" t="n">
-        <v>0.02709914709957927</v>
+        <v>0.03929333673174874</v>
       </c>
       <c r="F232" t="n">
-        <v>0.04736230095543255</v>
+        <v>0.04193113511598593</v>
       </c>
       <c r="G232" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H232" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I232" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J232" t="n">
         <v>28</v>
@@ -8346,31 +8346,1119 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.07767768670500252</v>
+        <v>0.07795792121943784</v>
       </c>
       <c r="C233" t="n">
-        <v>0.02603688158875058</v>
+        <v>0.04196487886163761</v>
       </c>
       <c r="D233" t="n">
-        <v>0.09645838935304918</v>
+        <v>0.08357652085754085</v>
       </c>
       <c r="E233" t="n">
-        <v>0.07997512821233441</v>
+        <v>0.07861092443882778</v>
       </c>
       <c r="F233" t="n">
-        <v>0.1072505927001954</v>
+        <v>0.0652466737233002</v>
       </c>
       <c r="G233" t="n">
-        <v>0.261027449192491</v>
+        <v>0.4072094505712918</v>
       </c>
       <c r="H233" t="n">
-        <v>0.7910950327846072</v>
+        <v>0.7819990312784129</v>
       </c>
       <c r="I233" t="n">
-        <v>0.5532900343798632</v>
+        <v>0.522973839584927</v>
       </c>
       <c r="J233" t="n">
         <v>28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.2951925664242582</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.057373316058667</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.2991951392881882</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.3092728021293675</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2229681553499503</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J234" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.3650394346942598</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1501655456127245</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.3831422276491506</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.387332991951557</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.2231367332784934</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J235" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1077313144926766</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.02552999881665499</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1468932984432567</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1294137626323791</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.1077313144926766</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J236" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1035764005311589</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.01411497734266466</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1095630562529634</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.1068261448911977</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1100588040408853</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J237" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1464500767786912</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.02635721636198936</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1430450109240222</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.1497438007229315</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1231090679156979</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J238" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.14410395682011</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.03010912301548144</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1333438428418817</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.1406024512253897</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.14410395682011</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J239" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.03464543983933242</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.04150942953551061</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.03486707659785043</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.0343485945182272</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.03464543983933242</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J240" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.1393770908596707</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.0695282036018344</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.1597736313436852</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.1393093648963455</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.1368326520977759</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.6035320737483547</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.7068560928693394</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.6605264853119354</v>
+      </c>
+      <c r="J241" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.4983735044809717</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0455650973669175</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.5212023663736998</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.5175094322280432</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.3939925919470081</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J242" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.6368516995251683</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.2326496457794198</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.6691437162385488</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.6365852863270473</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.4425601074334979</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J243" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1016971121399922</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.05466982287065418</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.09542172028578048</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.09495921933963458</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.1017715549864918</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J244" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.1064344730628797</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.05072900065976484</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.08287599250353755</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.0749368972244526</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.109919191758376</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J245" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.1201880571869009</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.03700953412673952</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1224836185520032</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.1156122420811564</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.1111014309183657</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J246" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1274376179982398</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.09382102146969908</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.1324823477181701</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.1468754553759179</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1274376179982398</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J247" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.05813048198969693</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.05379329874908413</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.06557894778526849</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.06557894778526849</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.05813048198969693</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J248" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.1392469765612888</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.07241058725656925</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1187916907336928</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.1248585788701556</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.08666693978849327</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.965273158990764</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.7607314428977181</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.6670065345849248</v>
+      </c>
+      <c r="J249" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.4069420786869929</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.05790215470959055</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.3335542319407919</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.3450111689398255</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.3800126656428821</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J250" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.4575394756690884</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.04330753991384802</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.4585938366124531</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.482846693263374</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.3093201153882701</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J251" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.04399499701437222</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.03255793666544236</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.04275229484035824</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.03189657891536244</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.04482113983112268</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J252" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.02734971053045062</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.002266150636496211</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.03448010167015997</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.04180702212898448</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.04637029992549997</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J253" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.08898946630233004</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.007016993837131115</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.05461744321015686</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.05482281778892943</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.07565509088714467</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J254" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.08846976904733835</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.04244000526509109</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.07235824892908893</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.07500286109226789</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.08846976904733835</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J255" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.05080350761198738</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.0616021296877511</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.04645659763349787</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.05183698627462058</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.05080350761198738</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J256" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.07225477767155354</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.02340520720371102</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.07516586299360006</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.06916172406760564</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.06677821696073512</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.5122903907794047</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.8550300290839189</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.543137929452413</v>
+      </c>
+      <c r="J257" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.3872999170078276</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.08738951390201834</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4033295540196757</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.3932547041673201</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.3926230240762939</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J258" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.4685811922596215</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1833003842484825</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4886521262409878</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.4593788378794029</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.3625086202558184</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J259" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1188002201073394</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.02393436821671664</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.127332989921749</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.1043502686108851</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.116592746947523</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J260" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.06906567027753244</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.03389945630924903</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.07754635280132974</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.07407398560343961</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.08046704503790608</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J261" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.1065407700055952</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.02844651693320588</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1142371725988667</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.1024185679954528</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.1112857361772399</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J262" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.1381579341743758</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.07241572036733669</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1134163229404876</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.1144502490774656</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.1381579341743758</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J263" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.06091896376172436</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.06608953121375823</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.05548973933901631</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.05548973933901631</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.06091896376172436</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J264" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.1350594099294636</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.09462654173213567</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.1265315219730796</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.121834395220465</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.1264722487911463</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.8770523692310688</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.7500129313013657</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.6459915836123187</v>
+      </c>
+      <c r="J265" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
